--- a/000.mbr/asm.xlsx
+++ b/000.mbr/asm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="asmcode" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="mcode" sheetId="3" r:id="rId4"/>
     <sheet name="memory" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">asm!$A$1:$E$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1528">
   <si>
     <t>XOR</t>
   </si>
@@ -7258,12 +7259,318 @@
     <t>FAT16</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>虽然jmp指令提供了控制转移，但是它不允许进行任何复杂的判断。80x86条件跳转指令提供了这种判断。条件跳转指令是创建循环和实现其他条件执行语句，如if…endif的基本要素。</t>
+  </si>
+  <si>
+    <t>条件跳转指令检查一个或多个标志位，判断它们是否匹配某个特殊条件(就像setcc指令)：如果标志匹配成功，该指令就将控制转移到目标位置；如果匹配失败，CPU忽略该条件跳转指令而继续执行下一条指令。一些条件跳转指令只是简单测试符号位(sign)、进位位(carry)、溢出位(overflow)、零标志(zero)位的设置。例如，在执行一条sh1指令后，您需要测试进位标志，来判断sh1是否从操作数的高地址位移出一位。类似地，也可以在一条test指令后测试零标志位，来判断指定的位是否为1。大多数情况，在cmp指令之后执行条件跳转指令。cmp指令设置标志位，以便判断小于、大于、等于等情况。</t>
+  </si>
+  <si>
+    <t>条件跳转指令形式如下：</t>
+  </si>
+  <si>
+    <t>Jcc label;</t>
+  </si>
+  <si>
+    <t>其中，Jcc中的“cc”，必须用表示测试条件类型的字符序列替换。这些字符和setcc指令使用的一样。例如，“js”表示根据符号(sign)标志是否被置位来决定是否跳转。一个典型的js指令如下：</t>
+  </si>
+  <si>
+    <t>js ValueIsNegative ;</t>
+  </si>
+  <si>
+    <t>在这个示例中，如果符号(sign)标志被置位，则js指令将控制转移到ValueIsNegative语句标号处；如果符号标志清零，则将控制直接转移给js指令后的指令。</t>
+  </si>
+  <si>
+    <t>与无条件jmp指令不同，条件跳转指令不提供间接跳转的形式。惟一允许的形式是跳转到程序中某一标号处。条件跳转指令有一个限制：目标标号的位置必须在跳转指令本身附近32768字节范围内，这通常对应着8000～32000条机器指令。一般情况下不会超过这种限制。</t>
+  </si>
+  <si>
+    <t>注意：Intel文档为许多条件跳转指令定义了多种替代名或指令别名。表7-1、7-2和7-3列出了每个指令所有的别名。这些表格也列出了表示相反分支的指令。很快您将明白这些相反分支指令的作用。</t>
+  </si>
+  <si>
+    <t>表7-1 测试标志位的JCC指令</t>
+  </si>
+  <si>
+    <t>指 令</t>
+  </si>
+  <si>
+    <t>描 述</t>
+  </si>
+  <si>
+    <t>条 件</t>
+  </si>
+  <si>
+    <t>别 名</t>
+  </si>
+  <si>
+    <t>相 反 指 令</t>
+  </si>
+  <si>
+    <t>如果进位位被置位则跳转</t>
+  </si>
+  <si>
+    <t>进位标志＝1</t>
+  </si>
+  <si>
+    <t>JB，JNAE</t>
+  </si>
+  <si>
+    <t>JNC</t>
+  </si>
+  <si>
+    <t>如果进位位没有置位则跳转</t>
+  </si>
+  <si>
+    <t>进位标志＝0</t>
+  </si>
+  <si>
+    <t>JNB，JAE</t>
+  </si>
+  <si>
+    <t>如果0标志被置位则跳转</t>
+  </si>
+  <si>
+    <t>0标志＝1</t>
+  </si>
+  <si>
+    <t>如果0标志没有置位则跳转</t>
+  </si>
+  <si>
+    <t>0标志＝0</t>
+  </si>
+  <si>
+    <t>(续表)</t>
+  </si>
+  <si>
+    <t>相反指令</t>
+  </si>
+  <si>
+    <t>如果符号位被置位则跳转</t>
+  </si>
+  <si>
+    <t>符号标志＝1</t>
+  </si>
+  <si>
+    <t>如果符号位没有被置位则跳转</t>
+  </si>
+  <si>
+    <t>符号标志＝0</t>
+  </si>
+  <si>
+    <t>如果溢出标志置位则跳转</t>
+  </si>
+  <si>
+    <t>溢出标志＝1</t>
+  </si>
+  <si>
+    <t>如果溢出标志没有置位则跳转</t>
+  </si>
+  <si>
+    <t>溢出标志＝0</t>
+  </si>
+  <si>
+    <t>如果奇偶校验位被置位则跳转</t>
+  </si>
+  <si>
+    <t>奇偶校验标志＝1</t>
+  </si>
+  <si>
+    <t>JPE</t>
+  </si>
+  <si>
+    <t>如果奇偶校验位为偶校验则跳转</t>
+  </si>
+  <si>
+    <t>如果奇偶校验位没有被置位则跳转</t>
+  </si>
+  <si>
+    <t>奇偶校验标志＝0</t>
+  </si>
+  <si>
+    <t>如果奇偶校验位为奇校验则跳转</t>
+  </si>
+  <si>
+    <t>表7-2 使用无符号数比较的JCC指令</t>
+  </si>
+  <si>
+    <t>如果超过(&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>进位标志＝0，0标志＝0</t>
+  </si>
+  <si>
+    <t>JNBE</t>
+  </si>
+  <si>
+    <t>JNA</t>
+  </si>
+  <si>
+    <t>如果不低于或等于(不 &lt;=)则跳转</t>
+  </si>
+  <si>
+    <t>如果超过或等于(&gt;=)则跳转</t>
+  </si>
+  <si>
+    <t>JNC，JNB</t>
+  </si>
+  <si>
+    <t>如果不低于则跳转(不 &lt;)</t>
+  </si>
+  <si>
+    <t>JNC，JAE</t>
+  </si>
+  <si>
+    <t>如果低于(&lt;)则跳转</t>
+  </si>
+  <si>
+    <t>JC，JNAE</t>
+  </si>
+  <si>
+    <t>如果不超过或等于(不&gt;=)则跳转</t>
+  </si>
+  <si>
+    <t>JC，JB</t>
+  </si>
+  <si>
+    <t>如果低于或等于(&lt;=)则跳转</t>
+  </si>
+  <si>
+    <t>进位标志＝1或0标志＝1</t>
+  </si>
+  <si>
+    <t>如果不超过(不&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>如果相等(=)则跳转</t>
+  </si>
+  <si>
+    <t>0标志=1</t>
+  </si>
+  <si>
+    <t>如果不相等(&lt;&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>0标志=0</t>
+  </si>
+  <si>
+    <t>表7-3 使用有符号数比较的JCC指令</t>
+  </si>
+  <si>
+    <t>如果大于(&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>符号标志=溢出标志或0标志=0</t>
+  </si>
+  <si>
+    <t>如果小于或等于(&lt;=)则跳转</t>
+  </si>
+  <si>
+    <t>JGE</t>
+  </si>
+  <si>
+    <t>如果大于或等于(&gt;=)则跳转</t>
+  </si>
+  <si>
+    <t>符号标志=溢出标志</t>
+  </si>
+  <si>
+    <t>如果不小于(不&lt;)则跳转</t>
+  </si>
+  <si>
+    <t>如果小于(&lt;)则跳转</t>
+  </si>
+  <si>
+    <t>符号标志&lt;&gt;溢出标志</t>
+  </si>
+  <si>
+    <t>JNGE</t>
+  </si>
+  <si>
+    <t>如果大于或等于(&gt;=)跳转</t>
+  </si>
+  <si>
+    <t>如果小于或等于(&lt;=)跳转</t>
+  </si>
+  <si>
+    <t>符号标志&lt;&gt;溢出标志或0标志=1</t>
+  </si>
+  <si>
+    <t>如果不大于(不&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>如果等于(=)则跳转</t>
+  </si>
+  <si>
+    <t>如果不等于(&lt;&gt;)则跳转</t>
+  </si>
+  <si>
+    <t>接下来将对“相反指令”一列进行简单的说明。在许多情况下，需要产生与某条分支指令条件相反的分支(在本章后面会给出示例)，即相反分支。除了两个例外，都可以按下面的简单规则(后面统称为N/No N规则)产生相反分支：</t>
+  </si>
+  <si>
+    <t>● 如果Jcc的第二个字母不是“n”，则在“j”后面插入一个“n”。例如：je对应为jne，jl对应为jnl。</t>
+  </si>
+  <si>
+    <t>● 如果Jcc的第二个字母是“n”，则去掉指令中的“n”。例如：jng对应为jg，jne对应为je。</t>
+  </si>
+  <si>
+    <t>不遵循这两条规则的两个例外是jpe(奇偶位为偶跳转)和jpo(奇偶位为奇跳转)。这两个例外并不会导致什么问题，因为：(a)很少需要测试奇偶标志;(b)可以使用别名jp和jnp替代jpe和jpo。而“N/No N”规则对jp和jnp是适用的。</t>
+  </si>
+  <si>
+    <t>虽然jge是jl的相反指令，但是建议使用jnl作为jl的相反指令。因为很容易误认为“大于是小于的相反”，从而把jg当作jl的相反指令。您可以坚持使用“N/No N”规则以避免这种混淆。</t>
+  </si>
+  <si>
+    <t>80x86条件跳转指令提供了这样的能力：根据判断条件将程序流分支到两条路径中的某一条。例如，要实现：如果BX等于CX，则寄存器AX的值加1。可以使用下面的代码来完成该功能：</t>
+  </si>
+  <si>
+    <t>cmp(bx,cx );</t>
+  </si>
+  <si>
+    <t>jne SkipStmts;</t>
+  </si>
+  <si>
+    <t>inc(ax );</t>
+  </si>
+  <si>
+    <t>SkipStmts:</t>
+  </si>
+  <si>
+    <t>其中的诀窍是使用相反分支指令来跳过在条件满足的情况下需要执行的指令。请坚持使用前面介绍的“N/no N”规则来选择相反分支指令。</t>
+  </si>
+  <si>
+    <t>使用条件跳转指令还可以实现循环。例如，下面的代码序列实现了从用户输入读入一串字符，并将字符存储到一组连续的单元中，直到用户输入回车键。</t>
+  </si>
+  <si>
+    <t>　 　mov(0,edi );</t>
+  </si>
+  <si>
+    <t>RdLnLoop:</t>
+  </si>
+  <si>
+    <t>　 stdin.getc(); //Read a character into the AL register.</t>
+  </si>
+  <si>
+    <t>　　 mov(al,Input [edi])); //Store away the character.</t>
+  </si>
+  <si>
+    <t>　　 inc(edi ); //Move on to the next character.</t>
+  </si>
+  <si>
+    <t>　　 cmp(al,stdio.cr ); //See if the user pressed Enter.</t>
+  </si>
+  <si>
+    <t>　　 jne RdLnLoop;</t>
+  </si>
+  <si>
+    <t>与setcc指令类似，条件跳转指令分为两类—— 测试特殊处理器标志位的条件跳转指令(例如jz、jc、jno)和测试某些条件(小于、大于等)的条件跳转指令。当测试某个条件时，条件跳转指令通常紧跟在一个cmp指令之后。cmp指令设置标志位后，如果是无符号数比较，使用ja、jae、jb、jbe、je或jne等指令测试这些标志来判断是否小于、小于等于、等于、不等于、大于或大于等于；如果是有符号数比较，则使用jl、jle、je、jne、jg、jge指令。</t>
+  </si>
+  <si>
+    <t>条件跳转指令测试标志位，但不影响标志位。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7402,6 +7709,18 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -7465,7 +7784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -7597,13 +7916,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF0F0F0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF0F0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF0F0F0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF0F0F0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF0F0F0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF0F0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF0F0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF0F0F0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7760,6 +8139,18 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7772,23 +8163,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8086,7 +8483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12937,8 +13334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17226,10 +17623,10 @@
       <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="52" t="s">
         <v>1012</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="52" t="s">
         <v>1013</v>
       </c>
       <c r="J4" s="50">
@@ -17256,10 +17653,10 @@
       <c r="Q4" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="52" t="s">
         <v>1099</v>
       </c>
-      <c r="S4" s="56"/>
+      <c r="S4" s="52"/>
       <c r="T4" s="50">
         <v>0</v>
       </c>
@@ -17284,8 +17681,8 @@
       <c r="G5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="51"/>
       <c r="K5" s="51"/>
       <c r="L5" s="21" t="s">
@@ -17306,8 +17703,8 @@
       <c r="Q5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
       <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" thickTop="1">
@@ -17332,10 +17729,10 @@
       <c r="G6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="52" t="s">
         <v>1014</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="52" t="s">
         <v>1015</v>
       </c>
       <c r="J6" s="50">
@@ -17362,10 +17759,10 @@
       <c r="Q6" s="22" t="s">
         <v>1100</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="52" t="s">
         <v>1101</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="52" t="s">
         <v>1102</v>
       </c>
       <c r="T6" s="50">
@@ -17392,8 +17789,8 @@
       <c r="G7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="51"/>
       <c r="K7" s="51"/>
       <c r="L7" s="21" t="s">
@@ -17414,8 +17811,8 @@
       <c r="Q7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
       <c r="T7" s="51"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" thickTop="1">
@@ -17440,10 +17837,10 @@
       <c r="G8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="52" t="s">
         <v>1016</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="52" t="s">
         <v>126</v>
       </c>
       <c r="J8" s="50">
@@ -17470,10 +17867,10 @@
       <c r="Q8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="52" t="s">
         <v>1103</v>
       </c>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="52" t="s">
         <v>128</v>
       </c>
       <c r="T8" s="50">
@@ -17500,8 +17897,8 @@
       <c r="G9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
       <c r="L9" s="21" t="s">
@@ -17522,8 +17919,8 @@
       <c r="Q9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
       <c r="T9" s="51"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" thickTop="1">
@@ -17548,10 +17945,10 @@
       <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="52" t="s">
         <v>1017</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="52" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="50">
@@ -17578,10 +17975,10 @@
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="S10" s="56" t="s">
+      <c r="S10" s="52" t="s">
         <v>40</v>
       </c>
       <c r="T10" s="50">
@@ -17608,8 +18005,8 @@
       <c r="G11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="21" t="s">
@@ -17630,8 +18027,8 @@
       <c r="Q11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
       <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1">
@@ -17762,20 +18159,20 @@
       <c r="A14" s="50">
         <v>6</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="52" t="s">
         <v>1034</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="52" t="s">
         <v>1035</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -17802,16 +18199,16 @@
       <c r="O14" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="52" t="s">
         <v>259</v>
       </c>
       <c r="T14" s="50">
@@ -17820,12 +18217,12 @@
     </row>
     <row r="15" spans="1:20" ht="14.25" thickBot="1">
       <c r="A15" s="51"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="26" t="s">
         <v>1037</v>
       </c>
@@ -17846,10 +18243,10 @@
       <c r="O15" s="23" t="s">
         <v>1122</v>
       </c>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
       <c r="T15" s="51"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1">
@@ -18034,7 +18431,7 @@
       <c r="A19" s="50">
         <v>9</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="52" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -18064,28 +18461,28 @@
       <c r="K19" s="50">
         <v>9</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="52" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="P19" s="56" t="s">
+      <c r="P19" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="S19" s="56" t="s">
+      <c r="S19" s="52" t="s">
         <v>186</v>
       </c>
       <c r="T19" s="50">
@@ -18094,7 +18491,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.25" thickBot="1">
       <c r="A20" s="51"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="23" t="s">
         <v>1053</v>
       </c>
@@ -18118,16 +18515,16 @@
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
       <c r="N20" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
       <c r="T20" s="51"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" thickTop="1">
@@ -18146,16 +18543,16 @@
       <c r="E21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="52" t="s">
         <v>113</v>
       </c>
       <c r="J21" s="50" t="s">
@@ -18170,22 +18567,22 @@
       <c r="M21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="56" t="s">
+      <c r="N21" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="O21" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q21" s="52" t="s">
         <v>1134</v>
       </c>
-      <c r="R21" s="56" t="s">
+      <c r="R21" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="S21" s="56" t="s">
+      <c r="S21" s="52" t="s">
         <v>309</v>
       </c>
       <c r="T21" s="50" t="s">
@@ -18206,10 +18603,10 @@
       <c r="E22" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="23" t="s">
@@ -18218,12 +18615,12 @@
       <c r="M22" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
       <c r="T22" s="51"/>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickTop="1">
@@ -18352,10 +18749,10 @@
       <c r="C25" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="52" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="20" t="s">
@@ -18379,25 +18776,25 @@
       <c r="L25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="56" t="s">
+      <c r="M25" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="54" t="s">
         <v>1143</v>
       </c>
-      <c r="O25" s="56" t="s">
+      <c r="O25" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="56" t="s">
+      <c r="P25" s="52" t="s">
         <v>1144</v>
       </c>
-      <c r="Q25" s="56" t="s">
+      <c r="Q25" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="R25" s="56" t="s">
+      <c r="R25" s="52" t="s">
         <v>1145</v>
       </c>
-      <c r="S25" s="56" t="s">
+      <c r="S25" s="52" t="s">
         <v>1146</v>
       </c>
       <c r="T25" s="50" t="s">
@@ -18412,8 +18809,8 @@
       <c r="C26" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="21" t="s">
         <v>1075</v>
       </c>
@@ -18431,13 +18828,13 @@
       <c r="L26" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
       <c r="T26" s="51"/>
     </row>
     <row r="27" spans="1:20" ht="14.25" thickTop="1">
@@ -18462,8 +18859,8 @@
       <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="56" t="s">
+      <c r="H27" s="54"/>
+      <c r="I27" s="52" t="s">
         <v>404</v>
       </c>
       <c r="J27" s="50" t="s">
@@ -18520,8 +18917,8 @@
       <c r="G28" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="57"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
       <c r="L28" s="26">
@@ -18554,16 +18951,16 @@
       <c r="A29" s="50" t="s">
         <v>1081</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="52" t="s">
         <v>1082</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="52" t="s">
         <v>1083</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="52" t="s">
         <v>1084</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="52" t="s">
         <v>1085</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -18584,16 +18981,16 @@
       <c r="K29" s="50" t="s">
         <v>1081</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="52" t="s">
         <v>1148</v>
       </c>
-      <c r="M29" s="56" t="s">
+      <c r="M29" s="52" t="s">
         <v>1149</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="52" t="s">
         <v>1150</v>
       </c>
       <c r="P29" s="22" t="s">
@@ -18614,10 +19011,10 @@
     </row>
     <row r="30" spans="1:20" ht="14.25" thickBot="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="23" t="s">
         <v>1010</v>
       </c>
@@ -18632,12 +19029,12 @@
       </c>
       <c r="J30" s="51"/>
       <c r="K30" s="51"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O30" s="57"/>
+      <c r="O30" s="53"/>
       <c r="P30" s="23" t="s">
         <v>1151</v>
       </c>
@@ -18656,20 +19053,20 @@
       <c r="A31" s="50" t="s">
         <v>1088</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="56" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="52" t="s">
         <v>1089</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="52" t="s">
         <v>1090</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="52" t="s">
         <v>74</v>
       </c>
       <c r="H31" s="27" t="s">
@@ -18684,22 +19081,22 @@
       <c r="K31" s="50" t="s">
         <v>1088</v>
       </c>
-      <c r="L31" s="56" t="s">
+      <c r="L31" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="56" t="s">
+      <c r="M31" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="N31" s="56" t="s">
+      <c r="N31" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="56" t="s">
+      <c r="P31" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q31" s="52" t="s">
         <v>364</v>
       </c>
       <c r="R31" s="27" t="s">
@@ -18714,12 +19111,12 @@
     </row>
     <row r="32" spans="1:20" ht="14.25" thickBot="1">
       <c r="A32" s="51"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="28" t="s">
         <v>1048</v>
       </c>
@@ -18728,12 +19125,12 @@
       </c>
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="R32" s="28" t="s">
         <v>1048</v>
       </c>
@@ -18746,28 +19143,28 @@
       <c r="A33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="60">
         <v>0</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="60">
         <v>1</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="60">
         <v>2</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="60">
         <v>3</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="60">
         <v>4</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="60">
         <v>5</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="60">
         <v>6</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="60">
         <v>7</v>
       </c>
       <c r="J33" s="29" t="s">
@@ -18808,14 +19205,14 @@
       <c r="A34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="30" t="s">
         <v>1095</v>
       </c>
@@ -19015,10 +19412,10 @@
       <c r="D55" s="50">
         <v>10</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="56">
         <v>11</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="18" t="s">
         <v>1164</v>
       </c>
@@ -19030,8 +19427,8 @@
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="55"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="19" t="s">
         <v>1165</v>
       </c>
@@ -19233,10 +19630,10 @@
       <c r="D65" s="50">
         <v>10</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="56">
         <v>11</v>
       </c>
-      <c r="F65" s="53"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1">
@@ -19246,8 +19643,8 @@
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="51"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="55"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickTop="1"/>
@@ -19350,6 +19747,152 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -19370,152 +19913,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19729,4 +20126,798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="330">
+      <c r="A1" s="62" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5">
+      <c r="A2" s="62" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
+      <c r="A3" s="62" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="62" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="363">
+      <c r="A5" s="62" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.5">
+      <c r="A6" s="62" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="297">
+      <c r="A7" s="62" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5">
+      <c r="A8" s="62" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="363">
+      <c r="A9" s="62" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="50.25" thickBot="1">
+      <c r="A10" s="62" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A11" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A13" s="65" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A15" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A16" s="67" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A17" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A18" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A19" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A20" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A21" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A22" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A23" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A24" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>777</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A25" s="65" t="s">
+        <v>777</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="66.75" thickBot="1">
+      <c r="A26" s="62" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A27" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A28" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A29" s="65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A30" s="65" t="s">
+        <v>761</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A31" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A32" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A33" s="65" t="s">
+        <v>762</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A34" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A35" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A36" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A37" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="66.75" thickBot="1">
+      <c r="A38" s="62" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A39" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A40" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>772</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A41" s="65" t="s">
+        <v>772</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A42" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A43" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A44" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A45" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A46" s="65" t="s">
+        <v>771</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="41.25" thickBot="1">
+      <c r="A47" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>771</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A48" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A49" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.5">
+      <c r="A50" s="62" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="181.5">
+      <c r="A51" s="62" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="165">
+      <c r="A52" s="62" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="409.5">
+      <c r="A53" s="62" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="330">
+      <c r="A54" s="62" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="346.5">
+      <c r="A55" s="62" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="33">
+      <c r="A56" s="62" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="33">
+      <c r="A57" s="62" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5">
+      <c r="A58" s="62" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
+      <c r="A59" s="62" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="247.5">
+      <c r="A60" s="62" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="280.5">
+      <c r="A61" s="62" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="33">
+      <c r="A62" s="62" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5">
+      <c r="A63" s="62" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="99">
+      <c r="A64" s="62" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="99">
+      <c r="A65" s="62" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="82.5">
+      <c r="A66" s="62" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="99">
+      <c r="A67" s="62" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="33">
+      <c r="A68" s="62" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="409.5">
+      <c r="A69" s="62" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="82.5">
+      <c r="A70" s="62" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/000.mbr/asm.xlsx
+++ b/000.mbr/asm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="asmcode" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1529">
   <si>
     <t>XOR</t>
   </si>
@@ -7564,6 +7564,82 @@
   </si>
   <si>
     <t>条件跳转指令测试标志位，但不影响标志位。</t>
+  </si>
+  <si>
+    <r>
+      <t>从内存指定位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>并放入ds和si寄存器中。ds中放段地址，si是段内偏移地址。</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7982,7 +8058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8133,42 +8209,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8186,6 +8226,45 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13334,8 +13413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14657,14 +14736,16 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="68" t="s">
+        <v>1528</v>
+      </c>
       <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:6">
@@ -17513,28 +17594,28 @@
       <c r="A2" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="56">
         <v>0</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="56">
         <v>1</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="56">
         <v>2</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="56">
         <v>3</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="56">
         <v>4</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="56">
         <v>5</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="56">
         <v>6</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="56">
         <v>7</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -17543,28 +17624,28 @@
       <c r="K2" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="56">
         <v>8</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="56">
         <v>9</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="56" t="s">
         <v>1060</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="56" t="s">
         <v>1073</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="56" t="s">
         <v>1076</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="56" t="s">
         <v>1088</v>
       </c>
       <c r="T2" s="18" t="s">
@@ -17575,34 +17656,34 @@
       <c r="A3" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="19" t="s">
         <v>1005</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
       <c r="T3" s="19" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A4" s="50">
+      <c r="A4" s="56">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -17623,16 +17704,16 @@
       <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="62" t="s">
         <v>1012</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="62" t="s">
         <v>1013</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="56">
         <v>0</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="56">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -17653,16 +17734,16 @@
       <c r="Q4" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="62" t="s">
         <v>1099</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="50">
+      <c r="S4" s="62"/>
+      <c r="T4" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17681,10 +17762,10 @@
       <c r="G5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17703,12 +17784,12 @@
       <c r="Q5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="51"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="57"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A6" s="50">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -17729,16 +17810,16 @@
       <c r="G6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="62" t="s">
         <v>1014</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="62" t="s">
         <v>1015</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="56">
         <v>1</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="56">
         <v>1</v>
       </c>
       <c r="L6" s="20" t="s">
@@ -17759,18 +17840,18 @@
       <c r="Q6" s="22" t="s">
         <v>1100</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="62" t="s">
         <v>1101</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="62" t="s">
         <v>1102</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A7" s="51"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17789,10 +17870,10 @@
       <c r="G7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17811,12 +17892,12 @@
       <c r="Q7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="51"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="57"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A8" s="50">
+      <c r="A8" s="56">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -17837,16 +17918,16 @@
       <c r="G8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="62" t="s">
         <v>1016</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="56">
         <v>2</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="56">
         <v>2</v>
       </c>
       <c r="L8" s="20" t="s">
@@ -17867,18 +17948,18 @@
       <c r="Q8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="62" t="s">
         <v>1103</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17897,10 +17978,10 @@
       <c r="G9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="21" t="s">
         <v>1006</v>
       </c>
@@ -17919,12 +18000,12 @@
       <c r="Q9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="51"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="57"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A10" s="50">
+      <c r="A10" s="56">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -17945,16 +18026,16 @@
       <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="62" t="s">
         <v>1017</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="56">
         <v>3</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="56">
         <v>3</v>
       </c>
       <c r="L10" s="20" t="s">
@@ -17975,18 +18056,18 @@
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="62" t="s">
         <v>1104</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="21" t="s">
         <v>1006</v>
       </c>
@@ -18005,10 +18086,10 @@
       <c r="G11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="21" t="s">
         <v>1006</v>
       </c>
@@ -18027,9 +18108,9 @@
       <c r="Q11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="51"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="57"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1">
       <c r="A12" s="24">
@@ -18156,23 +18237,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A14" s="50">
+      <c r="A14" s="56">
         <v>6</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="62" t="s">
         <v>1034</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="62" t="s">
         <v>1035</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -18181,10 +18262,10 @@
       <c r="I14" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="56">
         <v>6</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="56">
         <v>6</v>
       </c>
       <c r="L14" s="22" t="s">
@@ -18199,38 +18280,38 @@
       <c r="O14" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="52" t="s">
+      <c r="Q14" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="R14" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14" s="56">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="26" t="s">
         <v>1037</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="23" t="s">
         <v>1121</v>
       </c>
@@ -18243,11 +18324,11 @@
       <c r="O15" s="23" t="s">
         <v>1122</v>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="51"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1">
       <c r="A16" s="24">
@@ -18312,7 +18393,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A17" s="50">
+      <c r="A17" s="56">
         <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -18339,10 +18420,10 @@
       <c r="I17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="56">
         <v>8</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="56">
         <v>8</v>
       </c>
       <c r="L17" s="20" t="s">
@@ -18369,12 +18450,12 @@
       <c r="S17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="21.75" thickBot="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="28" t="s">
         <v>1048</v>
       </c>
@@ -18399,8 +18480,8 @@
       <c r="I18" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="21" t="s">
         <v>1006</v>
       </c>
@@ -18425,13 +18506,13 @@
       <c r="S18" s="21" t="s">
         <v>1075</v>
       </c>
-      <c r="T18" s="51"/>
+      <c r="T18" s="57"/>
     </row>
     <row r="19" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A19" s="50">
+      <c r="A19" s="56">
         <v>9</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="62" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -18455,43 +18536,43 @@
       <c r="I19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="56">
         <v>9</v>
       </c>
-      <c r="K19" s="50">
+      <c r="K19" s="56">
         <v>9</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="62" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="52" t="s">
+      <c r="O19" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="R19" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S19" s="52" t="s">
+      <c r="S19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="T19" s="50">
+      <c r="T19" s="56">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="23" t="s">
         <v>1053</v>
       </c>
@@ -18513,22 +18594,22 @@
       <c r="I20" s="23" t="s">
         <v>1059</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="51"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="57"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>1060</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -18543,22 +18624,22 @@
       <c r="E21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="56" t="s">
         <v>1060</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="56" t="s">
         <v>1060</v>
       </c>
       <c r="L21" s="22" t="s">
@@ -18567,30 +18648,30 @@
       <c r="M21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="62" t="s">
         <v>1134</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="T21" s="50" t="s">
+      <c r="T21" s="56" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A22" s="51"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="23" t="s">
         <v>1061</v>
       </c>
@@ -18603,28 +18684,28 @@
       <c r="E22" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="23" t="s">
         <v>1010</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="51"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="57"/>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="56" t="s">
         <v>1065</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -18651,10 +18732,10 @@
       <c r="I23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="56" t="s">
         <v>1065</v>
       </c>
       <c r="L23" s="22" t="s">
@@ -18681,12 +18762,12 @@
       <c r="S23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="50" t="s">
+      <c r="T23" s="56" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A24" s="51"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="23" t="s">
         <v>1010</v>
       </c>
@@ -18711,8 +18792,8 @@
       <c r="I24" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="23" t="s">
         <v>1011</v>
       </c>
@@ -18737,10 +18818,10 @@
       <c r="S24" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="T24" s="51"/>
+      <c r="T24" s="57"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="56" t="s">
         <v>1073</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -18749,10 +18830,10 @@
       <c r="C25" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="20" t="s">
@@ -18767,50 +18848,50 @@
       <c r="I25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="56" t="s">
         <v>1073</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="56" t="s">
         <v>1073</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="O25" s="52" t="s">
+      <c r="O25" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="52" t="s">
+      <c r="P25" s="62" t="s">
         <v>1144</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="62" t="s">
         <v>1145</v>
       </c>
-      <c r="S25" s="52" t="s">
+      <c r="S25" s="62" t="s">
         <v>1146</v>
       </c>
-      <c r="T25" s="50" t="s">
+      <c r="T25" s="56" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A26" s="51"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="28" t="s">
         <v>1051</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="21" t="s">
         <v>1075</v>
       </c>
@@ -18823,22 +18904,22 @@
       <c r="I26" s="21" t="s">
         <v>1049</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="51"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="57"/>
     </row>
     <row r="27" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="56" t="s">
         <v>1076</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -18859,14 +18940,14 @@
       <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="52" t="s">
+      <c r="H27" s="66"/>
+      <c r="I27" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="56" t="s">
         <v>1076</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="56" t="s">
         <v>1076</v>
       </c>
       <c r="L27" s="22" t="s">
@@ -18893,12 +18974,12 @@
       <c r="S27" s="22" t="s">
         <v>1147</v>
       </c>
-      <c r="T27" s="50" t="s">
+      <c r="T27" s="56" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A28" s="51"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="28" t="s">
         <v>1051</v>
       </c>
@@ -18917,10 +18998,10 @@
       <c r="G28" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
       <c r="L28" s="26">
         <v>0</v>
       </c>
@@ -18945,22 +19026,22 @@
       <c r="S28" s="26">
         <v>7</v>
       </c>
-      <c r="T28" s="51"/>
+      <c r="T28" s="57"/>
     </row>
     <row r="29" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="62" t="s">
         <v>1082</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="62" t="s">
         <v>1083</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="62" t="s">
         <v>1084</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="62" t="s">
         <v>1085</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -18975,22 +19056,22 @@
       <c r="I29" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="62" t="s">
         <v>1148</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="62" t="s">
         <v>1149</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="52" t="s">
+      <c r="O29" s="62" t="s">
         <v>1150</v>
       </c>
       <c r="P29" s="22" t="s">
@@ -19005,16 +19086,16 @@
       <c r="S29" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="T29" s="50" t="s">
+      <c r="T29" s="56" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="23" t="s">
         <v>1010</v>
       </c>
@@ -19027,14 +19108,14 @@
       <c r="I30" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O30" s="53"/>
+      <c r="O30" s="63"/>
       <c r="P30" s="23" t="s">
         <v>1151</v>
       </c>
@@ -19047,26 +19128,26 @@
       <c r="S30" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="T30" s="51"/>
+      <c r="T30" s="57"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="56" t="s">
         <v>1088</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="66"/>
+      <c r="D31" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="62" t="s">
         <v>1090</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="62" t="s">
         <v>74</v>
       </c>
       <c r="H31" s="27" t="s">
@@ -19075,28 +19156,28 @@
       <c r="I31" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="56" t="s">
         <v>1088</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="56" t="s">
         <v>1088</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="N31" s="52" t="s">
+      <c r="N31" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="52" t="s">
+      <c r="O31" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="52" t="s">
+      <c r="P31" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="62" t="s">
         <v>364</v>
       </c>
       <c r="R31" s="27" t="s">
@@ -19105,66 +19186,66 @@
       <c r="S31" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="T31" s="50" t="s">
+      <c r="T31" s="56" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="28" t="s">
         <v>1048</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>1049</v>
       </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
       <c r="R32" s="28" t="s">
         <v>1048</v>
       </c>
       <c r="S32" s="28" t="s">
         <v>1049</v>
       </c>
-      <c r="T32" s="51"/>
+      <c r="T32" s="57"/>
     </row>
     <row r="33" spans="1:20" ht="15" thickTop="1">
       <c r="A33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="64">
         <v>0</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="64">
         <v>1</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="64">
         <v>2</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="64">
         <v>3</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="64">
         <v>4</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="64">
         <v>5</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="64">
         <v>6</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="64">
         <v>7</v>
       </c>
       <c r="J33" s="29" t="s">
@@ -19173,28 +19254,28 @@
       <c r="K33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="L33" s="50">
+      <c r="L33" s="56">
         <v>8</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33" s="56">
         <v>9</v>
       </c>
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="56" t="s">
         <v>1060</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="56" t="s">
         <v>1065</v>
       </c>
-      <c r="P33" s="50" t="s">
+      <c r="P33" s="56" t="s">
         <v>1073</v>
       </c>
-      <c r="Q33" s="50" t="s">
+      <c r="Q33" s="56" t="s">
         <v>1076</v>
       </c>
-      <c r="R33" s="50" t="s">
+      <c r="R33" s="56" t="s">
         <v>1081</v>
       </c>
-      <c r="S33" s="50" t="s">
+      <c r="S33" s="56" t="s">
         <v>1088</v>
       </c>
       <c r="T33" s="29" t="s">
@@ -19205,28 +19286,28 @@
       <c r="A34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="30" t="s">
         <v>1095</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
       <c r="T34" s="30" t="s">
         <v>1095</v>
       </c>
@@ -19403,19 +19484,19 @@
       <c r="A55" s="18" t="s">
         <v>1162</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="56">
         <v>0</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="56">
         <v>1</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="56">
         <v>10</v>
       </c>
-      <c r="E55" s="56">
+      <c r="E55" s="58">
         <v>11</v>
       </c>
-      <c r="F55" s="57"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="18" t="s">
         <v>1164</v>
       </c>
@@ -19424,11 +19505,11 @@
       <c r="A56" s="19" t="s">
         <v>1163</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="59"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="19" t="s">
         <v>1165</v>
       </c>
@@ -19621,30 +19702,30 @@
       <c r="A65" s="18" t="s">
         <v>1206</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="56">
         <v>0</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="56">
         <v>1</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="56">
         <v>10</v>
       </c>
-      <c r="E65" s="56">
+      <c r="E65" s="58">
         <v>11</v>
       </c>
-      <c r="F65" s="57"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1">
       <c r="A66" s="19" t="s">
         <v>1162</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickTop="1"/>
@@ -19747,6 +19828,152 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
@@ -19767,152 +19994,6 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20132,7 +20213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -20141,777 +20222,777 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="330">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="148.5">
+      <c r="A1" s="50" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:5" ht="33">
+      <c r="A3" s="50" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="50" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="363">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:5" ht="148.5">
+      <c r="A5" s="50" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="49.5">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="50" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="297">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:5" ht="115.5">
+      <c r="A7" s="50" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:5" ht="214.5">
+      <c r="A8" s="50" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="363">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:5" ht="165">
+      <c r="A9" s="50" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="50.25" thickBot="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A10" s="50" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="51" t="s">
         <v>1436</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="51" t="s">
         <v>1437</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="51" t="s">
         <v>1438</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="51" t="s">
         <v>1439</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="52" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="53" t="s">
         <v>1441</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="53" t="s">
         <v>1442</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="53" t="s">
         <v>1443</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="54" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="53" t="s">
         <v>1444</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="53" t="s">
         <v>1445</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="53" t="s">
         <v>1446</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="53" t="s">
         <v>1447</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="53" t="s">
         <v>1448</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>1449</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="53" t="s">
         <v>1450</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="53" t="s">
         <v>1451</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="55" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="51" t="s">
         <v>1436</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="51" t="s">
         <v>1437</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="51" t="s">
         <v>1438</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="51" t="s">
         <v>1439</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="52" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="53" t="s">
         <v>1454</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>1455</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="54" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="53" t="s">
         <v>1456</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="53" t="s">
         <v>1457</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="54" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="53" t="s">
         <v>1458</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="53" t="s">
         <v>1459</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="53" t="s">
         <v>1460</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="53" t="s">
         <v>1461</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="53" t="s">
         <v>1462</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="53" t="s">
         <v>1463</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="53" t="s">
         <v>1464</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="53" t="s">
         <v>1464</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="53" t="s">
         <v>1465</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="53" t="s">
         <v>1463</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="54" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="53" t="s">
         <v>1466</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="53" t="s">
         <v>1467</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="53" t="s">
         <v>777</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="53" t="s">
         <v>777</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="53" t="s">
         <v>1468</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="53" t="s">
         <v>1467</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="54" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="66.75" thickBot="1">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A26" s="50" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="51" t="s">
         <v>1436</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="51" t="s">
         <v>1437</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="51" t="s">
         <v>1438</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="51" t="s">
         <v>1439</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="52" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="53" t="s">
         <v>1470</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="53" t="s">
         <v>1471</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="53" t="s">
         <v>1472</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="54" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="53" t="s">
         <v>1472</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="53" t="s">
         <v>1474</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="53" t="s">
         <v>1471</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="53" t="s">
         <v>1475</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="53" t="s">
         <v>1446</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="53" t="s">
         <v>1476</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="54" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="53" t="s">
         <v>1477</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="53" t="s">
         <v>1446</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="53" t="s">
         <v>1478</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="54" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="53" t="s">
         <v>1479</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="53" t="s">
         <v>1442</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="53" t="s">
         <v>1480</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="54" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="53" t="s">
         <v>1481</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="53" t="s">
         <v>1442</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="53" t="s">
         <v>1482</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="54" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="53" t="s">
         <v>1483</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="53" t="s">
         <v>1484</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="53" t="s">
         <v>1473</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="54" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="53" t="s">
         <v>1473</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="53" t="s">
         <v>1485</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="53" t="s">
         <v>1484</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="54" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="53" t="s">
         <v>1486</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="53" t="s">
         <v>1487</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="54" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="53" t="s">
         <v>1488</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="53" t="s">
         <v>1489</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="66.75" thickBot="1">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A38" s="50" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="51" t="s">
         <v>1436</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="51" t="s">
         <v>1437</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="51" t="s">
         <v>1438</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="51" t="s">
         <v>1439</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="52" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="53" t="s">
         <v>1491</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="53" t="s">
         <v>1492</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="53" t="s">
         <v>772</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="54" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="53" t="s">
         <v>772</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="53" t="s">
         <v>1493</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="53" t="s">
         <v>1492</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="54" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="53" t="s">
         <v>1494</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="53" t="s">
         <v>1496</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="54" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="53" t="s">
         <v>1497</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="53" t="s">
         <v>1496</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="53" t="s">
         <v>1494</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="53" t="s">
         <v>1498</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="53" t="s">
         <v>1499</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="53" t="s">
         <v>1500</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="54" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="53" t="s">
         <v>1500</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="53" t="s">
         <v>1501</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="53" t="s">
         <v>1499</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="54" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="53" t="s">
         <v>1502</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="53" t="s">
         <v>1503</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="54" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="41.25" thickBot="1">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="53" t="s">
         <v>1504</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="53" t="s">
         <v>1503</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="53" t="s">
         <v>1505</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="53" t="s">
         <v>1487</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="54" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="53" t="s">
         <v>1506</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="53" t="s">
         <v>1489</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="409.5">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:5" ht="181.5">
+      <c r="A50" s="50" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="181.5">
-      <c r="A51" s="62" t="s">
+    <row r="51" spans="1:5" ht="82.5">
+      <c r="A51" s="50" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="165">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:5" ht="66">
+      <c r="A52" s="50" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.5">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:5" ht="165">
+      <c r="A53" s="50" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="330">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:5" ht="148.5">
+      <c r="A54" s="50" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="346.5">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:5" ht="148.5">
+      <c r="A55" s="50" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="33">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:5" ht="16.5">
+      <c r="A56" s="50" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:5" ht="16.5">
+      <c r="A57" s="50" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="50" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="50" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="247.5">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:5" ht="99">
+      <c r="A60" s="50" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="280.5">
-      <c r="A61" s="62" t="s">
+    <row r="61" spans="1:5" ht="115.5">
+      <c r="A61" s="50" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="33">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:5" ht="16.5">
+      <c r="A62" s="50" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="50" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="99">
-      <c r="A64" s="62" t="s">
+    <row r="64" spans="1:5" ht="49.5">
+      <c r="A64" s="50" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="99">
-      <c r="A65" s="62" t="s">
+    <row r="65" spans="1:1" ht="33">
+      <c r="A65" s="50" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="82.5">
-      <c r="A66" s="62" t="s">
+    <row r="66" spans="1:1" ht="33">
+      <c r="A66" s="50" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="99">
-      <c r="A67" s="62" t="s">
+    <row r="67" spans="1:1" ht="49.5">
+      <c r="A67" s="50" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="33">
-      <c r="A68" s="62" t="s">
+    <row r="68" spans="1:1" ht="16.5">
+      <c r="A68" s="50" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="409.5">
-      <c r="A69" s="62" t="s">
+    <row r="69" spans="1:1" ht="330">
+      <c r="A69" s="50" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="82.5">
-      <c r="A70" s="62" t="s">
+    <row r="70" spans="1:1" ht="49.5">
+      <c r="A70" s="50" t="s">
         <v>1527</v>
       </c>
     </row>

--- a/000.mbr/asm.xlsx
+++ b/000.mbr/asm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="asmcode" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="汇编指令" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">asm!$A$1:$E$1</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="1808">
   <si>
     <t>XOR</t>
   </si>
@@ -14699,6 +14700,314 @@
   </si>
   <si>
     <t>REP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 名称 </t>
+  </si>
+  <si>
+    <t> 功能 </t>
+  </si>
+  <si>
+    <t>操作数</t>
+  </si>
+  <si>
+    <t>操作码</t>
+  </si>
+  <si>
+    <t>模数</t>
+  </si>
+  <si>
+    <t>寄存器1</t>
+  </si>
+  <si>
+    <t>寄存器2</t>
+  </si>
+  <si>
+    <t>或内存</t>
+  </si>
+  <si>
+    <t>位移量</t>
+  </si>
+  <si>
+    <t>立即数</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>芯片</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>16位</t>
+  </si>
+  <si>
+    <t>32位</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>$7A</t>
+  </si>
+  <si>
+    <t>$7B</t>
+  </si>
+  <si>
+    <t>$7C</t>
+  </si>
+  <si>
+    <t>$7D</t>
+  </si>
+  <si>
+    <t>$7E</t>
+  </si>
+  <si>
+    <t>$7F</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>$0F80</t>
+  </si>
+  <si>
+    <t>$0F81</t>
+  </si>
+  <si>
+    <t>$0F82</t>
+  </si>
+  <si>
+    <t>$0F83</t>
+  </si>
+  <si>
+    <t>$0F84</t>
+  </si>
+  <si>
+    <t>$0F85</t>
+  </si>
+  <si>
+    <t>$0F86</t>
+  </si>
+  <si>
+    <t>$0F87</t>
+  </si>
+  <si>
+    <t>$0F88</t>
+  </si>
+  <si>
+    <t>$0F89</t>
+  </si>
+  <si>
+    <t>$0F8A</t>
+  </si>
+  <si>
+    <t>$0F8B</t>
+  </si>
+  <si>
+    <t>$0F8C</t>
+  </si>
+  <si>
+    <t>$0F8D</t>
+  </si>
+  <si>
+    <t>$0F8E</t>
+  </si>
+  <si>
+    <t>$0F8F</t>
+  </si>
+  <si>
+    <t>位移8</t>
+  </si>
+  <si>
+    <t>$E3</t>
+  </si>
+  <si>
+    <t>跳转</t>
+  </si>
+  <si>
+    <t>寄16</t>
+  </si>
+  <si>
+    <t>$FF</t>
+  </si>
+  <si>
+    <t>寄32</t>
+  </si>
+  <si>
+    <t>16[寄16]</t>
+  </si>
+  <si>
+    <t>32[寄16]</t>
+  </si>
+  <si>
+    <t>16[寄32]</t>
+  </si>
+  <si>
+    <t>32[寄32]</t>
+  </si>
+  <si>
+    <t>16[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>32[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>16[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>32[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>16[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>32[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>16[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>32[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>近16[寄16]</t>
+  </si>
+  <si>
+    <t>近32[寄16]</t>
+  </si>
+  <si>
+    <t>近16[寄32]</t>
+  </si>
+  <si>
+    <t>近32[寄32]</t>
+  </si>
+  <si>
+    <t>近16[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>近32[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>近16[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>近32[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>近16[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>近32[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>近16[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>近32[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>远16[寄16]</t>
+  </si>
+  <si>
+    <t>远32[寄16]</t>
+  </si>
+  <si>
+    <t>远16[寄32]</t>
+  </si>
+  <si>
+    <t>远32[寄32]</t>
+  </si>
+  <si>
+    <t>远16[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>远32[寄16+位移8]</t>
+  </si>
+  <si>
+    <t>远16[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>远32[寄32+位移8]</t>
+  </si>
+  <si>
+    <t>远16[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>远32[寄16+位移16]</t>
+  </si>
+  <si>
+    <t>远16[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>远32[寄32+位移32]</t>
+  </si>
+  <si>
+    <t>$EB</t>
+  </si>
+  <si>
+    <t>位移16</t>
+  </si>
+  <si>
+    <t>$E9</t>
+  </si>
+  <si>
+    <t>位移32</t>
+  </si>
+  <si>
+    <t>远(数段址:)偏移16</t>
+  </si>
+  <si>
+    <t>$EA</t>
+  </si>
+  <si>
+    <t>远(数段址:)偏移32</t>
+  </si>
+  <si>
+    <t>数段址:偏移16</t>
+  </si>
+  <si>
+    <t>数段址:偏移32</t>
+  </si>
+  <si>
+    <t>$0F00</t>
+  </si>
+  <si>
+    <t>IA64</t>
+  </si>
+  <si>
+    <t>$0FB8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇编</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指令: JO、JNO、JB、JNB、JE、JNE、JBE、JA、JS、JNS、JP、JNP、JL、JNL、JNG、JG、JCXZ、JECXZ、JMP、JMPE</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14706,7 +15015,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14857,8 +15169,21 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14919,8 +15244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -15112,13 +15443,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15296,18 +15668,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -15320,10 +15680,40 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="25" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25295,10 +25685,10 @@
       <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="63" t="s">
         <v>1012</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="63" t="s">
         <v>1013</v>
       </c>
       <c r="J4" s="57">
@@ -25325,10 +25715,10 @@
       <c r="Q4" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="63" t="s">
         <v>1099</v>
       </c>
-      <c r="S4" s="59"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="57">
         <v>0</v>
       </c>
@@ -25353,8 +25743,8 @@
       <c r="G5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
       <c r="L5" s="21" t="s">
@@ -25375,8 +25765,8 @@
       <c r="Q5" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="58"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" thickTop="1">
@@ -25401,10 +25791,10 @@
       <c r="G6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="63" t="s">
         <v>1014</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="63" t="s">
         <v>1015</v>
       </c>
       <c r="J6" s="57">
@@ -25431,10 +25821,10 @@
       <c r="Q6" s="22" t="s">
         <v>1100</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="63" t="s">
         <v>1101</v>
       </c>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="63" t="s">
         <v>1102</v>
       </c>
       <c r="T6" s="57">
@@ -25461,8 +25851,8 @@
       <c r="G7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="58"/>
       <c r="K7" s="58"/>
       <c r="L7" s="21" t="s">
@@ -25483,8 +25873,8 @@
       <c r="Q7" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
       <c r="T7" s="58"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" thickTop="1">
@@ -25509,10 +25899,10 @@
       <c r="G8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="63" t="s">
         <v>1016</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="63" t="s">
         <v>126</v>
       </c>
       <c r="J8" s="57">
@@ -25539,10 +25929,10 @@
       <c r="Q8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="63" t="s">
         <v>1103</v>
       </c>
-      <c r="S8" s="59" t="s">
+      <c r="S8" s="63" t="s">
         <v>128</v>
       </c>
       <c r="T8" s="57">
@@ -25569,8 +25959,8 @@
       <c r="G9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="58"/>
       <c r="K9" s="58"/>
       <c r="L9" s="21" t="s">
@@ -25591,8 +25981,8 @@
       <c r="Q9" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="58"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" thickTop="1">
@@ -25617,10 +26007,10 @@
       <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="63" t="s">
         <v>1017</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="63" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="57">
@@ -25647,10 +26037,10 @@
       <c r="Q10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="63" t="s">
         <v>1104</v>
       </c>
-      <c r="S10" s="59" t="s">
+      <c r="S10" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T10" s="57">
@@ -25677,8 +26067,8 @@
       <c r="G11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="58"/>
       <c r="K11" s="58"/>
       <c r="L11" s="21" t="s">
@@ -25699,8 +26089,8 @@
       <c r="Q11" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="58"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1">
@@ -25831,20 +26221,20 @@
       <c r="A14" s="57">
         <v>6</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="63" t="s">
         <v>1034</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="63" t="s">
         <v>1035</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -25871,16 +26261,16 @@
       <c r="O14" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="59" t="s">
+      <c r="P14" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="Q14" s="59" t="s">
+      <c r="Q14" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="59" t="s">
+      <c r="R14" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="S14" s="59" t="s">
+      <c r="S14" s="63" t="s">
         <v>259</v>
       </c>
       <c r="T14" s="57">
@@ -25889,12 +26279,12 @@
     </row>
     <row r="15" spans="1:20" ht="14.25" thickBot="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="26" t="s">
         <v>1037</v>
       </c>
@@ -25915,10 +26305,10 @@
       <c r="O15" s="23" t="s">
         <v>1122</v>
       </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="58"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1">
@@ -26103,7 +26493,7 @@
       <c r="A19" s="57">
         <v>9</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="63" t="s">
         <v>247</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -26133,28 +26523,28 @@
       <c r="K19" s="57">
         <v>9</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="63" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="59" t="s">
+      <c r="O19" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="Q19" s="59" t="s">
+      <c r="Q19" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="R19" s="59" t="s">
+      <c r="R19" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="S19" s="59" t="s">
+      <c r="S19" s="63" t="s">
         <v>186</v>
       </c>
       <c r="T19" s="57">
@@ -26163,7 +26553,7 @@
     </row>
     <row r="20" spans="1:20" ht="14.25" thickBot="1">
       <c r="A20" s="58"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="23" t="s">
         <v>1053</v>
       </c>
@@ -26187,16 +26577,16 @@
       </c>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
       <c r="T20" s="58"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" thickTop="1">
@@ -26215,16 +26605,16 @@
       <c r="E21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="63" t="s">
         <v>113</v>
       </c>
       <c r="J21" s="57" t="s">
@@ -26239,22 +26629,22 @@
       <c r="M21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="O21" s="59" t="s">
+      <c r="O21" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="P21" s="59" t="s">
+      <c r="P21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="59" t="s">
+      <c r="Q21" s="63" t="s">
         <v>1134</v>
       </c>
-      <c r="R21" s="59" t="s">
+      <c r="R21" s="63" t="s">
         <v>305</v>
       </c>
-      <c r="S21" s="59" t="s">
+      <c r="S21" s="63" t="s">
         <v>309</v>
       </c>
       <c r="T21" s="57" t="s">
@@ -26275,10 +26665,10 @@
       <c r="E22" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="58"/>
       <c r="K22" s="58"/>
       <c r="L22" s="23" t="s">
@@ -26287,12 +26677,12 @@
       <c r="M22" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
       <c r="T22" s="58"/>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickTop="1">
@@ -26421,10 +26811,10 @@
       <c r="C25" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="63" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="20" t="s">
@@ -26448,25 +26838,25 @@
       <c r="L25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="N25" s="61" t="s">
+      <c r="N25" s="67" t="s">
         <v>1143</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="P25" s="63" t="s">
         <v>1144</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="63" t="s">
         <v>1145</v>
       </c>
-      <c r="S25" s="59" t="s">
+      <c r="S25" s="63" t="s">
         <v>1146</v>
       </c>
       <c r="T25" s="57" t="s">
@@ -26481,8 +26871,8 @@
       <c r="C26" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="21" t="s">
         <v>1075</v>
       </c>
@@ -26500,13 +26890,13 @@
       <c r="L26" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
       <c r="T26" s="58"/>
     </row>
     <row r="27" spans="1:20" ht="14.25" thickTop="1">
@@ -26531,8 +26921,8 @@
       <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="59" t="s">
+      <c r="H27" s="67"/>
+      <c r="I27" s="63" t="s">
         <v>404</v>
       </c>
       <c r="J27" s="57" t="s">
@@ -26589,8 +26979,8 @@
       <c r="G28" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
       <c r="L28" s="26">
@@ -26623,16 +27013,16 @@
       <c r="A29" s="57" t="s">
         <v>1081</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>1082</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="63" t="s">
         <v>1083</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="63" t="s">
         <v>1084</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="63" t="s">
         <v>1085</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -26653,16 +27043,16 @@
       <c r="K29" s="57" t="s">
         <v>1081</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="63" t="s">
         <v>1148</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="63" t="s">
         <v>1149</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="59" t="s">
+      <c r="O29" s="63" t="s">
         <v>1150</v>
       </c>
       <c r="P29" s="22" t="s">
@@ -26683,10 +27073,10 @@
     </row>
     <row r="30" spans="1:20" ht="14.25" thickBot="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="23" t="s">
         <v>1010</v>
       </c>
@@ -26701,12 +27091,12 @@
       </c>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
       <c r="N30" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="O30" s="60"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="23" t="s">
         <v>1151</v>
       </c>
@@ -26725,20 +27115,20 @@
       <c r="A31" s="57" t="s">
         <v>1088</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="59" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="63" t="s">
         <v>1089</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="63" t="s">
         <v>1090</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="63" t="s">
         <v>74</v>
       </c>
       <c r="H31" s="27" t="s">
@@ -26753,22 +27143,22 @@
       <c r="K31" s="57" t="s">
         <v>1088</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="59" t="s">
+      <c r="M31" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="N31" s="59" t="s">
+      <c r="N31" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="59" t="s">
+      <c r="O31" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="59" t="s">
+      <c r="P31" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="59" t="s">
+      <c r="Q31" s="63" t="s">
         <v>364</v>
       </c>
       <c r="R31" s="27" t="s">
@@ -26783,12 +27173,12 @@
     </row>
     <row r="32" spans="1:20" ht="14.25" thickBot="1">
       <c r="A32" s="58"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="28" t="s">
         <v>1048</v>
       </c>
@@ -26797,12 +27187,12 @@
       </c>
       <c r="J32" s="58"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
       <c r="R32" s="28" t="s">
         <v>1048</v>
       </c>
@@ -26815,28 +27205,28 @@
       <c r="A33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="65">
         <v>0</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="65">
         <v>1</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="65">
         <v>2</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="65">
         <v>3</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="65">
         <v>4</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="65">
         <v>5</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="65">
         <v>6</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="65">
         <v>7</v>
       </c>
       <c r="J33" s="29" t="s">
@@ -26877,14 +27267,14 @@
       <c r="A34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
       <c r="J34" s="30" t="s">
         <v>1095</v>
       </c>
@@ -27084,10 +27474,10 @@
       <c r="D55" s="57">
         <v>10</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="59">
         <v>11</v>
       </c>
-      <c r="F55" s="64"/>
+      <c r="F55" s="60"/>
       <c r="G55" s="18" t="s">
         <v>1164</v>
       </c>
@@ -27099,8 +27489,8 @@
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="19" t="s">
         <v>1165</v>
       </c>
@@ -27302,10 +27692,10 @@
       <c r="D65" s="57">
         <v>10</v>
       </c>
-      <c r="E65" s="63">
+      <c r="E65" s="59">
         <v>11</v>
       </c>
-      <c r="F65" s="64"/>
+      <c r="F65" s="60"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1">
@@ -27315,8 +27705,8 @@
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="58"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickTop="1"/>
@@ -27419,6 +27809,152 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
@@ -27439,152 +27975,6 @@
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:I34"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28553,8 +28943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30273,4 +30663,5076 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="73" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>1726</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="70" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="70" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
+      <c r="A4" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D4" s="72">
+        <v>70</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I4" s="71">
+        <v>10</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L4" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.5">
+      <c r="A5" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D5" s="72">
+        <v>71</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I5" s="71">
+        <v>10</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L5" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25">
+      <c r="A6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D6" s="72">
+        <v>72</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I6" s="71">
+        <v>10</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L6" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.5">
+      <c r="A7" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D7" s="72">
+        <v>73</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I7" s="71">
+        <v>10</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L7" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N7" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
+      <c r="A8" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D8" s="72">
+        <v>74</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I8" s="71">
+        <v>10</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L8" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25">
+      <c r="A9" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D9" s="72">
+        <v>75</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I9" s="71">
+        <v>10</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L9" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N9" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.5">
+      <c r="A10" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D10" s="72">
+        <v>76</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I10" s="71">
+        <v>10</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L10" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N10" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25">
+      <c r="A11" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D11" s="72">
+        <v>77</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I11" s="71">
+        <v>10</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L11" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N11" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25">
+      <c r="A12" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D12" s="72">
+        <v>78</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I12" s="71">
+        <v>10</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L12" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
+      <c r="A13" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D13" s="72">
+        <v>79</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I13" s="71">
+        <v>10</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L13" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M13" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25">
+      <c r="A14" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I14" s="71">
+        <v>10</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L14" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.5">
+      <c r="A15" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I15" s="71">
+        <v>10</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L15" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N15" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25">
+      <c r="A16" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I16" s="71">
+        <v>10</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L16" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N16" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5">
+      <c r="A17" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I17" s="71">
+        <v>10</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L17" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M17" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.5">
+      <c r="A18" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I18" s="71">
+        <v>10</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L18" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25">
+      <c r="A19" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I19" s="71">
+        <v>10</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L19" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N19" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25">
+      <c r="A20" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I20" s="71">
+        <v>10</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L20" s="71">
+        <v>386</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N20" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.5">
+      <c r="A21" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I21" s="71">
+        <v>10</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L21" s="71">
+        <v>386</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N21" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25">
+      <c r="A22" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I22" s="71">
+        <v>10</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L22" s="71">
+        <v>386</v>
+      </c>
+      <c r="M22" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N22" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="28.5">
+      <c r="A23" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I23" s="71">
+        <v>10</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L23" s="71">
+        <v>386</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N23" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14.25">
+      <c r="A24" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I24" s="71">
+        <v>10</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L24" s="71">
+        <v>386</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N24" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25">
+      <c r="A25" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I25" s="71">
+        <v>10</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L25" s="71">
+        <v>386</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N25" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.5">
+      <c r="A26" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I26" s="71">
+        <v>10</v>
+      </c>
+      <c r="J26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L26" s="71">
+        <v>386</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N26" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25">
+      <c r="A27" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I27" s="71">
+        <v>10</v>
+      </c>
+      <c r="J27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L27" s="71">
+        <v>386</v>
+      </c>
+      <c r="M27" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N27" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25">
+      <c r="A28" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I28" s="71">
+        <v>10</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L28" s="71">
+        <v>386</v>
+      </c>
+      <c r="M28" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N28" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14.25">
+      <c r="A29" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I29" s="71">
+        <v>10</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L29" s="71">
+        <v>386</v>
+      </c>
+      <c r="M29" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N29" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25">
+      <c r="A30" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I30" s="71">
+        <v>10</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L30" s="71">
+        <v>386</v>
+      </c>
+      <c r="M30" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N30" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.5">
+      <c r="A31" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I31" s="71">
+        <v>10</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L31" s="71">
+        <v>386</v>
+      </c>
+      <c r="M31" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N31" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25">
+      <c r="A32" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I32" s="71">
+        <v>10</v>
+      </c>
+      <c r="J32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L32" s="71">
+        <v>386</v>
+      </c>
+      <c r="M32" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N32" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.5">
+      <c r="A33" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I33" s="71">
+        <v>10</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L33" s="71">
+        <v>386</v>
+      </c>
+      <c r="M33" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N33" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="28.5">
+      <c r="A34" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I34" s="71">
+        <v>10</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L34" s="71">
+        <v>386</v>
+      </c>
+      <c r="M34" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N34" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.25">
+      <c r="A35" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I35" s="71">
+        <v>10</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L35" s="71">
+        <v>386</v>
+      </c>
+      <c r="M35" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N35" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.25">
+      <c r="A36" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I36" s="71">
+        <v>10</v>
+      </c>
+      <c r="J36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K36" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L36" s="71">
+        <v>386</v>
+      </c>
+      <c r="M36" s="72">
+        <v>66</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="28.5">
+      <c r="A37" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I37" s="71">
+        <v>10</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K37" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L37" s="71">
+        <v>386</v>
+      </c>
+      <c r="M37" s="72">
+        <v>66</v>
+      </c>
+      <c r="N37" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.25">
+      <c r="A38" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I38" s="71">
+        <v>10</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L38" s="71">
+        <v>386</v>
+      </c>
+      <c r="M38" s="72">
+        <v>66</v>
+      </c>
+      <c r="N38" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="28.5">
+      <c r="A39" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I39" s="71">
+        <v>10</v>
+      </c>
+      <c r="J39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L39" s="71">
+        <v>386</v>
+      </c>
+      <c r="M39" s="72">
+        <v>66</v>
+      </c>
+      <c r="N39" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.25">
+      <c r="A40" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I40" s="71">
+        <v>10</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L40" s="71">
+        <v>386</v>
+      </c>
+      <c r="M40" s="72">
+        <v>66</v>
+      </c>
+      <c r="N40" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="14.25">
+      <c r="A41" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I41" s="71">
+        <v>10</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L41" s="71">
+        <v>386</v>
+      </c>
+      <c r="M41" s="72">
+        <v>66</v>
+      </c>
+      <c r="N41" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.5">
+      <c r="A42" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I42" s="71">
+        <v>10</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K42" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L42" s="71">
+        <v>386</v>
+      </c>
+      <c r="M42" s="72">
+        <v>66</v>
+      </c>
+      <c r="N42" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.25">
+      <c r="A43" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I43" s="71">
+        <v>10</v>
+      </c>
+      <c r="J43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K43" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L43" s="71">
+        <v>386</v>
+      </c>
+      <c r="M43" s="72">
+        <v>66</v>
+      </c>
+      <c r="N43" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.25">
+      <c r="A44" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I44" s="71">
+        <v>10</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L44" s="71">
+        <v>386</v>
+      </c>
+      <c r="M44" s="72">
+        <v>66</v>
+      </c>
+      <c r="N44" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.25">
+      <c r="A45" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I45" s="71">
+        <v>10</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L45" s="71">
+        <v>386</v>
+      </c>
+      <c r="M45" s="72">
+        <v>66</v>
+      </c>
+      <c r="N45" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.25">
+      <c r="A46" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I46" s="71">
+        <v>10</v>
+      </c>
+      <c r="J46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K46" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L46" s="71">
+        <v>386</v>
+      </c>
+      <c r="M46" s="72">
+        <v>66</v>
+      </c>
+      <c r="N46" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.5">
+      <c r="A47" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I47" s="71">
+        <v>10</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L47" s="71">
+        <v>386</v>
+      </c>
+      <c r="M47" s="72">
+        <v>66</v>
+      </c>
+      <c r="N47" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="14.25">
+      <c r="A48" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I48" s="71">
+        <v>10</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K48" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L48" s="71">
+        <v>386</v>
+      </c>
+      <c r="M48" s="72">
+        <v>66</v>
+      </c>
+      <c r="N48" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="28.5">
+      <c r="A49" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I49" s="71">
+        <v>10</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K49" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L49" s="71">
+        <v>386</v>
+      </c>
+      <c r="M49" s="72">
+        <v>66</v>
+      </c>
+      <c r="N49" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.5">
+      <c r="A50" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I50" s="71">
+        <v>10</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L50" s="71">
+        <v>386</v>
+      </c>
+      <c r="M50" s="72">
+        <v>66</v>
+      </c>
+      <c r="N50" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.25">
+      <c r="A51" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I51" s="71">
+        <v>10</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K51" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L51" s="71">
+        <v>386</v>
+      </c>
+      <c r="M51" s="72">
+        <v>66</v>
+      </c>
+      <c r="N51" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28.5">
+      <c r="A52" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I52" s="71">
+        <v>10</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L52" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M52" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N52" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="28.5">
+      <c r="A53" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I53" s="71">
+        <v>10</v>
+      </c>
+      <c r="J53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K53" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L53" s="71">
+        <v>386</v>
+      </c>
+      <c r="M53" s="72">
+        <v>67</v>
+      </c>
+      <c r="N53" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="14.25">
+      <c r="A54" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E54" s="71">
+        <v>11</v>
+      </c>
+      <c r="F54" s="71">
+        <v>100</v>
+      </c>
+      <c r="G54" s="71">
+        <v>3</v>
+      </c>
+      <c r="H54" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J54" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K54" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L54" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M54" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N54" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="14.25">
+      <c r="A55" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E55" s="71">
+        <v>11</v>
+      </c>
+      <c r="F55" s="71">
+        <v>100</v>
+      </c>
+      <c r="G55" s="71">
+        <v>3</v>
+      </c>
+      <c r="H55" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I55" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J55" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K55" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L55" s="71">
+        <v>386</v>
+      </c>
+      <c r="M55" s="72">
+        <v>66</v>
+      </c>
+      <c r="N55" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="14.25">
+      <c r="A56" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E56" s="71">
+        <v>0</v>
+      </c>
+      <c r="F56" s="71">
+        <v>100</v>
+      </c>
+      <c r="G56" s="71">
+        <v>5</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J56" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K56" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L56" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M56" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N56" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="14.25">
+      <c r="A57" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E57" s="71">
+        <v>0</v>
+      </c>
+      <c r="F57" s="71">
+        <v>100</v>
+      </c>
+      <c r="G57" s="71">
+        <v>5</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K57" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L57" s="71">
+        <v>386</v>
+      </c>
+      <c r="M57" s="72">
+        <v>66</v>
+      </c>
+      <c r="N57" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14.25">
+      <c r="A58" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E58" s="71">
+        <v>0</v>
+      </c>
+      <c r="F58" s="71">
+        <v>100</v>
+      </c>
+      <c r="G58" s="71">
+        <v>5</v>
+      </c>
+      <c r="H58" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J58" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K58" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L58" s="71">
+        <v>386</v>
+      </c>
+      <c r="M58" s="72">
+        <v>67</v>
+      </c>
+      <c r="N58" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="14.25">
+      <c r="A59" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E59" s="71">
+        <v>0</v>
+      </c>
+      <c r="F59" s="71">
+        <v>100</v>
+      </c>
+      <c r="G59" s="71">
+        <v>5</v>
+      </c>
+      <c r="H59" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I59" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J59" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K59" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L59" s="71">
+        <v>386</v>
+      </c>
+      <c r="M59" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N59" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="28.5">
+      <c r="A60" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E60" s="71">
+        <v>1</v>
+      </c>
+      <c r="F60" s="71">
+        <v>100</v>
+      </c>
+      <c r="G60" s="71">
+        <v>5</v>
+      </c>
+      <c r="H60" s="71">
+        <v>9</v>
+      </c>
+      <c r="I60" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J60" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K60" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L60" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M60" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N60" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="28.5">
+      <c r="A61" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E61" s="71">
+        <v>1</v>
+      </c>
+      <c r="F61" s="71">
+        <v>100</v>
+      </c>
+      <c r="G61" s="71">
+        <v>5</v>
+      </c>
+      <c r="H61" s="71">
+        <v>9</v>
+      </c>
+      <c r="I61" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J61" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K61" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L61" s="71">
+        <v>386</v>
+      </c>
+      <c r="M61" s="72">
+        <v>66</v>
+      </c>
+      <c r="N61" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="28.5">
+      <c r="A62" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E62" s="71">
+        <v>1</v>
+      </c>
+      <c r="F62" s="71">
+        <v>100</v>
+      </c>
+      <c r="G62" s="71">
+        <v>5</v>
+      </c>
+      <c r="H62" s="71">
+        <v>9</v>
+      </c>
+      <c r="I62" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J62" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K62" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L62" s="71">
+        <v>386</v>
+      </c>
+      <c r="M62" s="72">
+        <v>67</v>
+      </c>
+      <c r="N62" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="28.5">
+      <c r="A63" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E63" s="71">
+        <v>1</v>
+      </c>
+      <c r="F63" s="71">
+        <v>100</v>
+      </c>
+      <c r="G63" s="71">
+        <v>5</v>
+      </c>
+      <c r="H63" s="71">
+        <v>9</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J63" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K63" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L63" s="71">
+        <v>386</v>
+      </c>
+      <c r="M63" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N63" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="28.5">
+      <c r="A64" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E64" s="71">
+        <v>10</v>
+      </c>
+      <c r="F64" s="71">
+        <v>100</v>
+      </c>
+      <c r="G64" s="71">
+        <v>5</v>
+      </c>
+      <c r="H64" s="71">
+        <v>9</v>
+      </c>
+      <c r="I64" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J64" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K64" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L64" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M64" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N64" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="28.5">
+      <c r="A65" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E65" s="71">
+        <v>10</v>
+      </c>
+      <c r="F65" s="71">
+        <v>100</v>
+      </c>
+      <c r="G65" s="71">
+        <v>5</v>
+      </c>
+      <c r="H65" s="71">
+        <v>9</v>
+      </c>
+      <c r="I65" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J65" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K65" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L65" s="71">
+        <v>386</v>
+      </c>
+      <c r="M65" s="72">
+        <v>66</v>
+      </c>
+      <c r="N65" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="28.5">
+      <c r="A66" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E66" s="71">
+        <v>10</v>
+      </c>
+      <c r="F66" s="71">
+        <v>100</v>
+      </c>
+      <c r="G66" s="71">
+        <v>5</v>
+      </c>
+      <c r="H66" s="71">
+        <v>9</v>
+      </c>
+      <c r="I66" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J66" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K66" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L66" s="71">
+        <v>386</v>
+      </c>
+      <c r="M66" s="72">
+        <v>67</v>
+      </c>
+      <c r="N66" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="28.5">
+      <c r="A67" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E67" s="71">
+        <v>10</v>
+      </c>
+      <c r="F67" s="71">
+        <v>100</v>
+      </c>
+      <c r="G67" s="71">
+        <v>5</v>
+      </c>
+      <c r="H67" s="71">
+        <v>9</v>
+      </c>
+      <c r="I67" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J67" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K67" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L67" s="71">
+        <v>386</v>
+      </c>
+      <c r="M67" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N67" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="28.5">
+      <c r="A68" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D68" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E68" s="71">
+        <v>0</v>
+      </c>
+      <c r="F68" s="71">
+        <v>100</v>
+      </c>
+      <c r="G68" s="71">
+        <v>5</v>
+      </c>
+      <c r="H68" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I68" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J68" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K68" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L68" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M68" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N68" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="28.5">
+      <c r="A69" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E69" s="71">
+        <v>0</v>
+      </c>
+      <c r="F69" s="71">
+        <v>100</v>
+      </c>
+      <c r="G69" s="71">
+        <v>5</v>
+      </c>
+      <c r="H69" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I69" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J69" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K69" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L69" s="71">
+        <v>386</v>
+      </c>
+      <c r="M69" s="72">
+        <v>66</v>
+      </c>
+      <c r="N69" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="28.5">
+      <c r="A70" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C70" s="71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D70" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E70" s="71">
+        <v>0</v>
+      </c>
+      <c r="F70" s="71">
+        <v>100</v>
+      </c>
+      <c r="G70" s="71">
+        <v>5</v>
+      </c>
+      <c r="H70" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I70" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J70" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K70" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L70" s="71">
+        <v>386</v>
+      </c>
+      <c r="M70" s="72">
+        <v>67</v>
+      </c>
+      <c r="N70" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="28.5">
+      <c r="A71" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E71" s="71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="71">
+        <v>100</v>
+      </c>
+      <c r="G71" s="71">
+        <v>5</v>
+      </c>
+      <c r="H71" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I71" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J71" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K71" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L71" s="71">
+        <v>386</v>
+      </c>
+      <c r="M71" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N71" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="42.75">
+      <c r="A72" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D72" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E72" s="71">
+        <v>1</v>
+      </c>
+      <c r="F72" s="71">
+        <v>100</v>
+      </c>
+      <c r="G72" s="71">
+        <v>5</v>
+      </c>
+      <c r="H72" s="71">
+        <v>9</v>
+      </c>
+      <c r="I72" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J72" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K72" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L72" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M72" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N72" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="42.75">
+      <c r="A73" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C73" s="71" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E73" s="71">
+        <v>1</v>
+      </c>
+      <c r="F73" s="71">
+        <v>100</v>
+      </c>
+      <c r="G73" s="71">
+        <v>5</v>
+      </c>
+      <c r="H73" s="71">
+        <v>9</v>
+      </c>
+      <c r="I73" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J73" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K73" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L73" s="71">
+        <v>386</v>
+      </c>
+      <c r="M73" s="72">
+        <v>66</v>
+      </c>
+      <c r="N73" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="42.75">
+      <c r="A74" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C74" s="71" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E74" s="71">
+        <v>1</v>
+      </c>
+      <c r="F74" s="71">
+        <v>100</v>
+      </c>
+      <c r="G74" s="71">
+        <v>5</v>
+      </c>
+      <c r="H74" s="71">
+        <v>9</v>
+      </c>
+      <c r="I74" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J74" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K74" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L74" s="71">
+        <v>386</v>
+      </c>
+      <c r="M74" s="72">
+        <v>67</v>
+      </c>
+      <c r="N74" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="42.75">
+      <c r="A75" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E75" s="71">
+        <v>1</v>
+      </c>
+      <c r="F75" s="71">
+        <v>100</v>
+      </c>
+      <c r="G75" s="71">
+        <v>5</v>
+      </c>
+      <c r="H75" s="71">
+        <v>9</v>
+      </c>
+      <c r="I75" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J75" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K75" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L75" s="71">
+        <v>386</v>
+      </c>
+      <c r="M75" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N75" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="42.75">
+      <c r="A76" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E76" s="71">
+        <v>10</v>
+      </c>
+      <c r="F76" s="71">
+        <v>100</v>
+      </c>
+      <c r="G76" s="71">
+        <v>5</v>
+      </c>
+      <c r="H76" s="71">
+        <v>9</v>
+      </c>
+      <c r="I76" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J76" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K76" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L76" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M76" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N76" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="42.75">
+      <c r="A77" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D77" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E77" s="71">
+        <v>10</v>
+      </c>
+      <c r="F77" s="71">
+        <v>100</v>
+      </c>
+      <c r="G77" s="71">
+        <v>5</v>
+      </c>
+      <c r="H77" s="71">
+        <v>9</v>
+      </c>
+      <c r="I77" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J77" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K77" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L77" s="71">
+        <v>386</v>
+      </c>
+      <c r="M77" s="72">
+        <v>66</v>
+      </c>
+      <c r="N77" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="42.75">
+      <c r="A78" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D78" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E78" s="71">
+        <v>10</v>
+      </c>
+      <c r="F78" s="71">
+        <v>100</v>
+      </c>
+      <c r="G78" s="71">
+        <v>5</v>
+      </c>
+      <c r="H78" s="71">
+        <v>9</v>
+      </c>
+      <c r="I78" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J78" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K78" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L78" s="71">
+        <v>386</v>
+      </c>
+      <c r="M78" s="72">
+        <v>67</v>
+      </c>
+      <c r="N78" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="42.75">
+      <c r="A79" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C79" s="71" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E79" s="71">
+        <v>10</v>
+      </c>
+      <c r="F79" s="71">
+        <v>100</v>
+      </c>
+      <c r="G79" s="71">
+        <v>5</v>
+      </c>
+      <c r="H79" s="71">
+        <v>9</v>
+      </c>
+      <c r="I79" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J79" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K79" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L79" s="71">
+        <v>386</v>
+      </c>
+      <c r="M79" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N79" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="28.5">
+      <c r="A80" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E80" s="71">
+        <v>0</v>
+      </c>
+      <c r="F80" s="71">
+        <v>101</v>
+      </c>
+      <c r="G80" s="71">
+        <v>5</v>
+      </c>
+      <c r="H80" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I80" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J80" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K80" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L80" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M80" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N80" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="28.5">
+      <c r="A81" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E81" s="71">
+        <v>0</v>
+      </c>
+      <c r="F81" s="71">
+        <v>101</v>
+      </c>
+      <c r="G81" s="71">
+        <v>5</v>
+      </c>
+      <c r="H81" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I81" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J81" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K81" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L81" s="71">
+        <v>386</v>
+      </c>
+      <c r="M81" s="72">
+        <v>66</v>
+      </c>
+      <c r="N81" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="28.5">
+      <c r="A82" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E82" s="71">
+        <v>0</v>
+      </c>
+      <c r="F82" s="71">
+        <v>101</v>
+      </c>
+      <c r="G82" s="71">
+        <v>5</v>
+      </c>
+      <c r="H82" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J82" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K82" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L82" s="71">
+        <v>386</v>
+      </c>
+      <c r="M82" s="72">
+        <v>67</v>
+      </c>
+      <c r="N82" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="28.5">
+      <c r="A83" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E83" s="71">
+        <v>0</v>
+      </c>
+      <c r="F83" s="71">
+        <v>101</v>
+      </c>
+      <c r="G83" s="71">
+        <v>5</v>
+      </c>
+      <c r="H83" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I83" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J83" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K83" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L83" s="71">
+        <v>386</v>
+      </c>
+      <c r="M83" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N83" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="42.75">
+      <c r="A84" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E84" s="71">
+        <v>1</v>
+      </c>
+      <c r="F84" s="71">
+        <v>101</v>
+      </c>
+      <c r="G84" s="71">
+        <v>5</v>
+      </c>
+      <c r="H84" s="71">
+        <v>9</v>
+      </c>
+      <c r="I84" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J84" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K84" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L84" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M84" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N84" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="42.75">
+      <c r="A85" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E85" s="71">
+        <v>1</v>
+      </c>
+      <c r="F85" s="71">
+        <v>101</v>
+      </c>
+      <c r="G85" s="71">
+        <v>5</v>
+      </c>
+      <c r="H85" s="71">
+        <v>9</v>
+      </c>
+      <c r="I85" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J85" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K85" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L85" s="71">
+        <v>386</v>
+      </c>
+      <c r="M85" s="72">
+        <v>66</v>
+      </c>
+      <c r="N85" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="42.75">
+      <c r="A86" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E86" s="71">
+        <v>1</v>
+      </c>
+      <c r="F86" s="71">
+        <v>101</v>
+      </c>
+      <c r="G86" s="71">
+        <v>5</v>
+      </c>
+      <c r="H86" s="71">
+        <v>9</v>
+      </c>
+      <c r="I86" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J86" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K86" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L86" s="71">
+        <v>386</v>
+      </c>
+      <c r="M86" s="72">
+        <v>67</v>
+      </c>
+      <c r="N86" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="42.75">
+      <c r="A87" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E87" s="71">
+        <v>1</v>
+      </c>
+      <c r="F87" s="71">
+        <v>101</v>
+      </c>
+      <c r="G87" s="71">
+        <v>5</v>
+      </c>
+      <c r="H87" s="71">
+        <v>9</v>
+      </c>
+      <c r="I87" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J87" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K87" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L87" s="71">
+        <v>386</v>
+      </c>
+      <c r="M87" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N87" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="42.75">
+      <c r="A88" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E88" s="71">
+        <v>10</v>
+      </c>
+      <c r="F88" s="71">
+        <v>101</v>
+      </c>
+      <c r="G88" s="71">
+        <v>5</v>
+      </c>
+      <c r="H88" s="71">
+        <v>9</v>
+      </c>
+      <c r="I88" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J88" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K88" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L88" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M88" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N88" s="72">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="42.75">
+      <c r="A89" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E89" s="71">
+        <v>10</v>
+      </c>
+      <c r="F89" s="71">
+        <v>101</v>
+      </c>
+      <c r="G89" s="71">
+        <v>5</v>
+      </c>
+      <c r="H89" s="71">
+        <v>9</v>
+      </c>
+      <c r="I89" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J89" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K89" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L89" s="71">
+        <v>386</v>
+      </c>
+      <c r="M89" s="72">
+        <v>66</v>
+      </c>
+      <c r="N89" s="72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="42.75">
+      <c r="A90" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D90" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E90" s="71">
+        <v>10</v>
+      </c>
+      <c r="F90" s="71">
+        <v>101</v>
+      </c>
+      <c r="G90" s="71">
+        <v>5</v>
+      </c>
+      <c r="H90" s="71">
+        <v>9</v>
+      </c>
+      <c r="I90" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J90" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K90" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L90" s="71">
+        <v>386</v>
+      </c>
+      <c r="M90" s="72">
+        <v>67</v>
+      </c>
+      <c r="N90" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="42.75">
+      <c r="A91" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E91" s="71">
+        <v>10</v>
+      </c>
+      <c r="F91" s="71">
+        <v>101</v>
+      </c>
+      <c r="G91" s="71">
+        <v>5</v>
+      </c>
+      <c r="H91" s="71">
+        <v>9</v>
+      </c>
+      <c r="I91" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J91" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K91" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L91" s="71">
+        <v>386</v>
+      </c>
+      <c r="M91" s="72">
+        <v>6766</v>
+      </c>
+      <c r="N91" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="14.25">
+      <c r="A92" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D92" s="71" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I92" s="71">
+        <v>10</v>
+      </c>
+      <c r="J92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L92" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M92" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N92" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="14.25">
+      <c r="A93" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D93" s="71" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I93" s="71">
+        <v>10</v>
+      </c>
+      <c r="J93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L93" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M93" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N93" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="14.25">
+      <c r="A94" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D94" s="71" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I94" s="71">
+        <v>10</v>
+      </c>
+      <c r="J94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K94" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L94" s="71">
+        <v>386</v>
+      </c>
+      <c r="M94" s="72">
+        <v>66</v>
+      </c>
+      <c r="N94" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="14.25">
+      <c r="A95" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D95" s="71" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I95" s="71">
+        <v>10</v>
+      </c>
+      <c r="J95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L95" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M95" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N95" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="14.25">
+      <c r="A96" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D96" s="71" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I96" s="71">
+        <v>10</v>
+      </c>
+      <c r="J96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K96" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L96" s="71">
+        <v>386</v>
+      </c>
+      <c r="M96" s="72">
+        <v>66</v>
+      </c>
+      <c r="N96" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="42.75">
+      <c r="A97" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D97" s="71" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I97" s="71">
+        <v>10</v>
+      </c>
+      <c r="J97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L97" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M97" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N97" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="42.75">
+      <c r="A98" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D98" s="71" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I98" s="71">
+        <v>10</v>
+      </c>
+      <c r="J98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K98" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L98" s="71">
+        <v>386</v>
+      </c>
+      <c r="M98" s="72">
+        <v>66</v>
+      </c>
+      <c r="N98" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="28.5">
+      <c r="A99" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I99" s="71">
+        <v>12</v>
+      </c>
+      <c r="J99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L99" s="71">
+        <v>8086</v>
+      </c>
+      <c r="M99" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N99" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="28.5">
+      <c r="A100" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="71" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D100" s="71" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I100" s="71">
+        <v>12</v>
+      </c>
+      <c r="J100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K100" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L100" s="71">
+        <v>386</v>
+      </c>
+      <c r="M100" s="72">
+        <v>66</v>
+      </c>
+      <c r="N100" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="14.25">
+      <c r="A101" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D101" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E101" s="71">
+        <v>11</v>
+      </c>
+      <c r="F101" s="71">
+        <v>110</v>
+      </c>
+      <c r="G101" s="71">
+        <v>3</v>
+      </c>
+      <c r="H101" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I101" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J101" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K101" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L101" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M101" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N101" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.25">
+      <c r="A102" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D102" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E102" s="71">
+        <v>11</v>
+      </c>
+      <c r="F102" s="71">
+        <v>110</v>
+      </c>
+      <c r="G102" s="71">
+        <v>3</v>
+      </c>
+      <c r="H102" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I102" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J102" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K102" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L102" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M102" s="72">
+        <v>66</v>
+      </c>
+      <c r="N102" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="14.25">
+      <c r="A103" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D103" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E103" s="71">
+        <v>0</v>
+      </c>
+      <c r="F103" s="71">
+        <v>110</v>
+      </c>
+      <c r="G103" s="71">
+        <v>5</v>
+      </c>
+      <c r="H103" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I103" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J103" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K103" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L103" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M103" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N103" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="14.25">
+      <c r="A104" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D104" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E104" s="71">
+        <v>0</v>
+      </c>
+      <c r="F104" s="71">
+        <v>110</v>
+      </c>
+      <c r="G104" s="71">
+        <v>5</v>
+      </c>
+      <c r="H104" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I104" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J104" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K104" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L104" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M104" s="72">
+        <v>66</v>
+      </c>
+      <c r="N104" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="14.25">
+      <c r="A105" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D105" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E105" s="71">
+        <v>0</v>
+      </c>
+      <c r="F105" s="71">
+        <v>110</v>
+      </c>
+      <c r="G105" s="71">
+        <v>5</v>
+      </c>
+      <c r="H105" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I105" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J105" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K105" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L105" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M105" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N105" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="14.25">
+      <c r="A106" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D106" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E106" s="71">
+        <v>0</v>
+      </c>
+      <c r="F106" s="71">
+        <v>110</v>
+      </c>
+      <c r="G106" s="71">
+        <v>5</v>
+      </c>
+      <c r="H106" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I106" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J106" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K106" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L106" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M106" s="72">
+        <v>66</v>
+      </c>
+      <c r="N106" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="28.5">
+      <c r="A107" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D107" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E107" s="71">
+        <v>1</v>
+      </c>
+      <c r="F107" s="71">
+        <v>110</v>
+      </c>
+      <c r="G107" s="71">
+        <v>5</v>
+      </c>
+      <c r="H107" s="71">
+        <v>9</v>
+      </c>
+      <c r="I107" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J107" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K107" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L107" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M107" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N107" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="28.5">
+      <c r="A108" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D108" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E108" s="71">
+        <v>1</v>
+      </c>
+      <c r="F108" s="71">
+        <v>110</v>
+      </c>
+      <c r="G108" s="71">
+        <v>5</v>
+      </c>
+      <c r="H108" s="71">
+        <v>9</v>
+      </c>
+      <c r="I108" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J108" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K108" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L108" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M108" s="72">
+        <v>66</v>
+      </c>
+      <c r="N108" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="28.5">
+      <c r="A109" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D109" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E109" s="71">
+        <v>1</v>
+      </c>
+      <c r="F109" s="71">
+        <v>110</v>
+      </c>
+      <c r="G109" s="71">
+        <v>5</v>
+      </c>
+      <c r="H109" s="71">
+        <v>9</v>
+      </c>
+      <c r="I109" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J109" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K109" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L109" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M109" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N109" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="28.5">
+      <c r="A110" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D110" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E110" s="71">
+        <v>1</v>
+      </c>
+      <c r="F110" s="71">
+        <v>110</v>
+      </c>
+      <c r="G110" s="71">
+        <v>5</v>
+      </c>
+      <c r="H110" s="71">
+        <v>9</v>
+      </c>
+      <c r="I110" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J110" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K110" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L110" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M110" s="72">
+        <v>66</v>
+      </c>
+      <c r="N110" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="28.5">
+      <c r="A111" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D111" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E111" s="71">
+        <v>10</v>
+      </c>
+      <c r="F111" s="71">
+        <v>110</v>
+      </c>
+      <c r="G111" s="71">
+        <v>5</v>
+      </c>
+      <c r="H111" s="71">
+        <v>9</v>
+      </c>
+      <c r="I111" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J111" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K111" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L111" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M111" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N111" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="28.5">
+      <c r="A112" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D112" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E112" s="71">
+        <v>10</v>
+      </c>
+      <c r="F112" s="71">
+        <v>110</v>
+      </c>
+      <c r="G112" s="71">
+        <v>5</v>
+      </c>
+      <c r="H112" s="71">
+        <v>9</v>
+      </c>
+      <c r="I112" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J112" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K112" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L112" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M112" s="72">
+        <v>66</v>
+      </c>
+      <c r="N112" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="28.5">
+      <c r="A113" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D113" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E113" s="71">
+        <v>10</v>
+      </c>
+      <c r="F113" s="71">
+        <v>110</v>
+      </c>
+      <c r="G113" s="71">
+        <v>5</v>
+      </c>
+      <c r="H113" s="71">
+        <v>9</v>
+      </c>
+      <c r="I113" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J113" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K113" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L113" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M113" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N113" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="28.5">
+      <c r="A114" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D114" s="71" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E114" s="71">
+        <v>10</v>
+      </c>
+      <c r="F114" s="71">
+        <v>110</v>
+      </c>
+      <c r="G114" s="71">
+        <v>5</v>
+      </c>
+      <c r="H114" s="71">
+        <v>9</v>
+      </c>
+      <c r="I114" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J114" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K114" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L114" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M114" s="72">
+        <v>66</v>
+      </c>
+      <c r="N114" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="14.25">
+      <c r="A115" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D115" s="71" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I115" s="71">
+        <v>10</v>
+      </c>
+      <c r="J115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L115" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M115" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N115" s="72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="14.25">
+      <c r="A116" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D116" s="71" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I116" s="71">
+        <v>10</v>
+      </c>
+      <c r="J116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K116" s="71" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L116" s="71" t="s">
+        <v>1805</v>
+      </c>
+      <c r="M116" s="72">
+        <v>66</v>
+      </c>
+      <c r="N116" s="71" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/000.mbr/asm.xlsx
+++ b/000.mbr/asm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="asmcode" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="1810">
   <si>
     <t>XOR</t>
   </si>
@@ -15007,6 +15007,76 @@
         <charset val="128"/>
       </rPr>
       <t>指令: JO、JNO、JB、JNB、JE、JNE、JBE、JA、JS、JNS、JP、JNP、JL、JNL、JNG、JG、JCXZ、JECXZ、JMP、JMPE</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIV SRC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>操作：16位被除数在AX，8位除数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>源操作数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>果的8位商在AL中，8位余数在AH中。</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -15662,10 +15732,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="25" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15680,35 +15774,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="24" fontId="25" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -25575,28 +25645,28 @@
       <c r="A2" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="61">
         <v>0</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="61">
         <v>1</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="61">
         <v>2</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="61">
         <v>3</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="61">
         <v>4</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="61">
         <v>5</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="61">
         <v>6</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="61">
         <v>7</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -25605,28 +25675,28 @@
       <c r="K2" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="61">
         <v>8</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="61">
         <v>9</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="61" t="s">
         <v>1065</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="61" t="s">
         <v>1073</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="Q2" s="61" t="s">
         <v>1076</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="61" t="s">
         <v>1081</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="61" t="s">
         <v>1088</v>
       </c>
       <c r="T2" s="18" t="s">
@@ -25637,34 +25707,34 @@
       <c r="A3" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="19" t="s">
         <v>1005</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
       <c r="T3" s="19" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A4" s="57">
+      <c r="A4" s="61">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -25691,10 +25761,10 @@
       <c r="I4" s="63" t="s">
         <v>1013</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="61">
         <v>0</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="61">
         <v>0</v>
       </c>
       <c r="L4" s="20" t="s">
@@ -25719,12 +25789,12 @@
         <v>1099</v>
       </c>
       <c r="S4" s="63"/>
-      <c r="T4" s="57">
+      <c r="T4" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25745,8 +25815,8 @@
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25767,10 +25837,10 @@
       </c>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
-      <c r="T5" s="58"/>
+      <c r="T5" s="62"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A6" s="57">
+      <c r="A6" s="61">
         <v>1</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -25797,10 +25867,10 @@
       <c r="I6" s="63" t="s">
         <v>1015</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="61">
         <v>1</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="61">
         <v>1</v>
       </c>
       <c r="L6" s="20" t="s">
@@ -25827,12 +25897,12 @@
       <c r="S6" s="63" t="s">
         <v>1102</v>
       </c>
-      <c r="T6" s="57">
+      <c r="T6" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25853,8 +25923,8 @@
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25875,10 +25945,10 @@
       </c>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
-      <c r="T7" s="58"/>
+      <c r="T7" s="62"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A8" s="57">
+      <c r="A8" s="61">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -25905,10 +25975,10 @@
       <c r="I8" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="61">
         <v>2</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="61">
         <v>2</v>
       </c>
       <c r="L8" s="20" t="s">
@@ -25935,12 +26005,12 @@
       <c r="S8" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25961,8 +26031,8 @@
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="21" t="s">
         <v>1006</v>
       </c>
@@ -25983,10 +26053,10 @@
       </c>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
-      <c r="T9" s="58"/>
+      <c r="T9" s="62"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A10" s="57">
+      <c r="A10" s="61">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -26013,10 +26083,10 @@
       <c r="I10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="61">
         <v>3</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="61">
         <v>3</v>
       </c>
       <c r="L10" s="20" t="s">
@@ -26043,12 +26113,12 @@
       <c r="S10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="57">
+      <c r="T10" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="21" t="s">
         <v>1006</v>
       </c>
@@ -26069,8 +26139,8 @@
       </c>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="21" t="s">
         <v>1006</v>
       </c>
@@ -26091,7 +26161,7 @@
       </c>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
-      <c r="T11" s="58"/>
+      <c r="T11" s="62"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1">
       <c r="A12" s="24">
@@ -26218,7 +26288,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A14" s="57">
+      <c r="A14" s="61">
         <v>6</v>
       </c>
       <c r="B14" s="63" t="s">
@@ -26230,7 +26300,7 @@
       <c r="D14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="63" t="s">
         <v>1034</v>
       </c>
@@ -26243,10 +26313,10 @@
       <c r="I14" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="61">
         <v>6</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="61">
         <v>6</v>
       </c>
       <c r="L14" s="22" t="s">
@@ -26273,16 +26343,16 @@
       <c r="S14" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A15" s="58"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
-      <c r="E15" s="68"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
       <c r="H15" s="26" t="s">
@@ -26291,8 +26361,8 @@
       <c r="I15" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="23" t="s">
         <v>1121</v>
       </c>
@@ -26309,7 +26379,7 @@
       <c r="Q15" s="64"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
-      <c r="T15" s="58"/>
+      <c r="T15" s="62"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1">
       <c r="A16" s="24">
@@ -26374,7 +26444,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A17" s="57">
+      <c r="A17" s="61">
         <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -26401,10 +26471,10 @@
       <c r="I17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="61">
         <v>8</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="61">
         <v>8</v>
       </c>
       <c r="L17" s="20" t="s">
@@ -26431,12 +26501,12 @@
       <c r="S17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="57">
+      <c r="T17" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="21.75" thickBot="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="28" t="s">
         <v>1048</v>
       </c>
@@ -26461,8 +26531,8 @@
       <c r="I18" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="21" t="s">
         <v>1006</v>
       </c>
@@ -26487,10 +26557,10 @@
       <c r="S18" s="21" t="s">
         <v>1075</v>
       </c>
-      <c r="T18" s="58"/>
+      <c r="T18" s="62"/>
     </row>
     <row r="19" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A19" s="57">
+      <c r="A19" s="61">
         <v>9</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -26517,10 +26587,10 @@
       <c r="I19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="61">
         <v>9</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="61">
         <v>9</v>
       </c>
       <c r="L19" s="63" t="s">
@@ -26547,12 +26617,12 @@
       <c r="S19" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A20" s="58"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="64"/>
       <c r="C20" s="23" t="s">
         <v>1053</v>
@@ -26575,8 +26645,8 @@
       <c r="I20" s="23" t="s">
         <v>1059</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
       <c r="N20" s="23" t="s">
@@ -26587,10 +26657,10 @@
       <c r="Q20" s="64"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
-      <c r="T20" s="58"/>
+      <c r="T20" s="62"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="61" t="s">
         <v>1060</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -26617,10 +26687,10 @@
       <c r="I21" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="61" t="s">
         <v>1060</v>
       </c>
       <c r="L21" s="22" t="s">
@@ -26647,12 +26717,12 @@
       <c r="S21" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="T21" s="57" t="s">
+      <c r="T21" s="61" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A22" s="58"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="23" t="s">
         <v>1061</v>
       </c>
@@ -26669,8 +26739,8 @@
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="23" t="s">
         <v>1010</v>
       </c>
@@ -26683,10 +26753,10 @@
       <c r="Q22" s="64"/>
       <c r="R22" s="64"/>
       <c r="S22" s="64"/>
-      <c r="T22" s="58"/>
+      <c r="T22" s="62"/>
     </row>
     <row r="23" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="61" t="s">
         <v>1065</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -26713,10 +26783,10 @@
       <c r="I23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="61" t="s">
         <v>1065</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="61" t="s">
         <v>1065</v>
       </c>
       <c r="L23" s="22" t="s">
@@ -26743,12 +26813,12 @@
       <c r="S23" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="57" t="s">
+      <c r="T23" s="61" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A24" s="58"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="23" t="s">
         <v>1010</v>
       </c>
@@ -26773,8 +26843,8 @@
       <c r="I24" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="23" t="s">
         <v>1011</v>
       </c>
@@ -26799,10 +26869,10 @@
       <c r="S24" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="T24" s="58"/>
+      <c r="T24" s="62"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="61" t="s">
         <v>1073</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -26829,10 +26899,10 @@
       <c r="I25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="61" t="s">
         <v>1073</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="61" t="s">
         <v>1073</v>
       </c>
       <c r="L25" s="22" t="s">
@@ -26841,7 +26911,7 @@
       <c r="M25" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="N25" s="67" t="s">
+      <c r="N25" s="65" t="s">
         <v>1143</v>
       </c>
       <c r="O25" s="63" t="s">
@@ -26859,12 +26929,12 @@
       <c r="S25" s="63" t="s">
         <v>1146</v>
       </c>
-      <c r="T25" s="57" t="s">
+      <c r="T25" s="61" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A26" s="58"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="28" t="s">
         <v>1051</v>
       </c>
@@ -26885,22 +26955,22 @@
       <c r="I26" s="21" t="s">
         <v>1049</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="23" t="s">
         <v>1142</v>
       </c>
       <c r="M26" s="64"/>
-      <c r="N26" s="68"/>
+      <c r="N26" s="66"/>
       <c r="O26" s="64"/>
       <c r="P26" s="64"/>
       <c r="Q26" s="64"/>
       <c r="R26" s="64"/>
       <c r="S26" s="64"/>
-      <c r="T26" s="58"/>
+      <c r="T26" s="62"/>
     </row>
     <row r="27" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="61" t="s">
         <v>1076</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -26921,14 +26991,14 @@
       <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="65"/>
       <c r="I27" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="61" t="s">
         <v>1076</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="61" t="s">
         <v>1076</v>
       </c>
       <c r="L27" s="22" t="s">
@@ -26955,12 +27025,12 @@
       <c r="S27" s="22" t="s">
         <v>1147</v>
       </c>
-      <c r="T27" s="57" t="s">
+      <c r="T27" s="61" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A28" s="58"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="28" t="s">
         <v>1051</v>
       </c>
@@ -26979,10 +27049,10 @@
       <c r="G28" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="H28" s="68"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="26">
         <v>0</v>
       </c>
@@ -27007,10 +27077,10 @@
       <c r="S28" s="26">
         <v>7</v>
       </c>
-      <c r="T28" s="58"/>
+      <c r="T28" s="62"/>
     </row>
     <row r="29" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="61" t="s">
         <v>1081</v>
       </c>
       <c r="B29" s="63" t="s">
@@ -27037,10 +27107,10 @@
       <c r="I29" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="61" t="s">
         <v>1081</v>
       </c>
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="61" t="s">
         <v>1081</v>
       </c>
       <c r="L29" s="63" t="s">
@@ -27067,12 +27137,12 @@
       <c r="S29" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="T29" s="57" t="s">
+      <c r="T29" s="61" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
@@ -27089,8 +27159,8 @@
       <c r="I30" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="64"/>
       <c r="M30" s="64"/>
       <c r="N30" s="23" t="s">
@@ -27109,16 +27179,16 @@
       <c r="S30" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="T30" s="58"/>
+      <c r="T30" s="62"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" thickTop="1">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="61" t="s">
         <v>1088</v>
       </c>
       <c r="B31" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="63" t="s">
         <v>1089</v>
       </c>
@@ -27137,10 +27207,10 @@
       <c r="I31" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="61" t="s">
         <v>1088</v>
       </c>
-      <c r="K31" s="57" t="s">
+      <c r="K31" s="61" t="s">
         <v>1088</v>
       </c>
       <c r="L31" s="63" t="s">
@@ -27167,14 +27237,14 @@
       <c r="S31" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="T31" s="57" t="s">
+      <c r="T31" s="61" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A32" s="58"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="64"/>
-      <c r="C32" s="68"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -27185,8 +27255,8 @@
       <c r="I32" s="28" t="s">
         <v>1049</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
@@ -27199,34 +27269,34 @@
       <c r="S32" s="28" t="s">
         <v>1049</v>
       </c>
-      <c r="T32" s="58"/>
+      <c r="T32" s="62"/>
     </row>
     <row r="33" spans="1:20" ht="15" thickTop="1">
       <c r="A33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="71">
         <v>0</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="71">
         <v>1</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="71">
         <v>2</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="71">
         <v>3</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="71">
         <v>4</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="71">
         <v>5</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="71">
         <v>6</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="71">
         <v>7</v>
       </c>
       <c r="J33" s="29" t="s">
@@ -27235,28 +27305,28 @@
       <c r="K33" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="L33" s="57">
+      <c r="L33" s="61">
         <v>8</v>
       </c>
-      <c r="M33" s="57">
+      <c r="M33" s="61">
         <v>9</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="N33" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="O33" s="57" t="s">
+      <c r="O33" s="61" t="s">
         <v>1065</v>
       </c>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="61" t="s">
         <v>1073</v>
       </c>
-      <c r="Q33" s="57" t="s">
+      <c r="Q33" s="61" t="s">
         <v>1076</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R33" s="61" t="s">
         <v>1081</v>
       </c>
-      <c r="S33" s="57" t="s">
+      <c r="S33" s="61" t="s">
         <v>1088</v>
       </c>
       <c r="T33" s="29" t="s">
@@ -27267,28 +27337,28 @@
       <c r="A34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="30" t="s">
         <v>1095</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
       <c r="T34" s="30" t="s">
         <v>1095</v>
       </c>
@@ -27465,19 +27535,19 @@
       <c r="A55" s="18" t="s">
         <v>1162</v>
       </c>
-      <c r="B55" s="57">
+      <c r="B55" s="61">
         <v>0</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="61">
         <v>1</v>
       </c>
-      <c r="D55" s="57">
+      <c r="D55" s="61">
         <v>10</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="67">
         <v>11</v>
       </c>
-      <c r="F55" s="60"/>
+      <c r="F55" s="68"/>
       <c r="G55" s="18" t="s">
         <v>1164</v>
       </c>
@@ -27486,11 +27556,11 @@
       <c r="A56" s="19" t="s">
         <v>1163</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="19" t="s">
         <v>1165</v>
       </c>
@@ -27683,30 +27753,30 @@
       <c r="A65" s="18" t="s">
         <v>1206</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="61">
         <v>0</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="61">
         <v>1</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="61">
         <v>10</v>
       </c>
-      <c r="E65" s="59">
+      <c r="E65" s="67">
         <v>11</v>
       </c>
-      <c r="F65" s="60"/>
+      <c r="F65" s="68"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1">
       <c r="A66" s="19" t="s">
         <v>1162</v>
       </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickTop="1"/>
@@ -27809,6 +27879,152 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
@@ -27829,152 +28045,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28943,8 +29013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29304,8 +29374,12 @@
       <c r="B19" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1809</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="e">
         <f>VLOOKUP(B19,asmcode!C:C,1,0)</f>
@@ -30669,7 +30743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -30699,7 +30773,7 @@
       <c r="F2" s="73" t="s">
         <v>1717</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="57" t="s">
         <v>1718</v>
       </c>
       <c r="H2" s="73" t="s">
@@ -30714,7 +30788,7 @@
       <c r="K2" s="73" t="s">
         <v>1723</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="57" t="s">
         <v>1724</v>
       </c>
       <c r="M2" s="73" t="s">
@@ -30731,4998 +30805,4993 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="58" t="s">
         <v>1719</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
       <c r="J3" s="74"/>
       <c r="K3" s="74"/>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="58" t="s">
         <v>1725</v>
       </c>
       <c r="M3" s="74"/>
       <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="60">
         <v>70</v>
       </c>
-      <c r="E4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I4" s="71">
+      <c r="E4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I4" s="59">
         <v>10</v>
       </c>
-      <c r="J4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L4" s="71">
+      <c r="J4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L4" s="59">
         <v>8086</v>
       </c>
-      <c r="M4" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N4" s="71" t="s">
+      <c r="M4" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N4" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.5">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="60">
         <v>71</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I5" s="71">
+      <c r="E5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I5" s="59">
         <v>10</v>
       </c>
-      <c r="J5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L5" s="71">
+      <c r="J5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L5" s="59">
         <v>8086</v>
       </c>
-      <c r="M5" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N5" s="71" t="s">
+      <c r="M5" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N5" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="60">
         <v>72</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I6" s="71">
+      <c r="E6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I6" s="59">
         <v>10</v>
       </c>
-      <c r="J6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L6" s="71">
+      <c r="J6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L6" s="59">
         <v>8086</v>
       </c>
-      <c r="M6" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N6" s="71" t="s">
+      <c r="M6" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N6" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.5">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="60">
         <v>73</v>
       </c>
-      <c r="E7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I7" s="71">
+      <c r="E7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I7" s="59">
         <v>10</v>
       </c>
-      <c r="J7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L7" s="71">
+      <c r="J7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L7" s="59">
         <v>8086</v>
       </c>
-      <c r="M7" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N7" s="71" t="s">
+      <c r="M7" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N7" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="60">
         <v>74</v>
       </c>
-      <c r="E8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I8" s="71">
+      <c r="E8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I8" s="59">
         <v>10</v>
       </c>
-      <c r="J8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L8" s="71">
+      <c r="J8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L8" s="59">
         <v>8086</v>
       </c>
-      <c r="M8" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N8" s="71" t="s">
+      <c r="M8" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N8" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="60">
         <v>75</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I9" s="71">
+      <c r="E9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I9" s="59">
         <v>10</v>
       </c>
-      <c r="J9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L9" s="71">
+      <c r="J9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L9" s="59">
         <v>8086</v>
       </c>
-      <c r="M9" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N9" s="71" t="s">
+      <c r="M9" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N9" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.5">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="60">
         <v>76</v>
       </c>
-      <c r="E10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I10" s="71">
+      <c r="E10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I10" s="59">
         <v>10</v>
       </c>
-      <c r="J10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L10" s="71">
+      <c r="J10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L10" s="59">
         <v>8086</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N10" s="71" t="s">
+      <c r="M10" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N10" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="60">
         <v>77</v>
       </c>
-      <c r="E11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I11" s="71">
+      <c r="E11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I11" s="59">
         <v>10</v>
       </c>
-      <c r="J11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L11" s="71">
+      <c r="J11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L11" s="59">
         <v>8086</v>
       </c>
-      <c r="M11" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N11" s="71" t="s">
+      <c r="M11" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N11" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="60">
         <v>78</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I12" s="71">
+      <c r="E12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I12" s="59">
         <v>10</v>
       </c>
-      <c r="J12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L12" s="71">
+      <c r="J12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L12" s="59">
         <v>8086</v>
       </c>
-      <c r="M12" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N12" s="71" t="s">
+      <c r="M12" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N12" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="60">
         <v>79</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I13" s="71">
+      <c r="E13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I13" s="59">
         <v>10</v>
       </c>
-      <c r="J13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L13" s="71">
+      <c r="J13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L13" s="59">
         <v>8086</v>
       </c>
-      <c r="M13" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N13" s="71" t="s">
+      <c r="M13" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N13" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="59" t="s">
         <v>1730</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I14" s="71">
+      <c r="E14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I14" s="59">
         <v>10</v>
       </c>
-      <c r="J14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L14" s="71">
+      <c r="J14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L14" s="59">
         <v>8086</v>
       </c>
-      <c r="M14" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N14" s="71" t="s">
+      <c r="M14" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N14" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.5">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="59" t="s">
         <v>1731</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I15" s="71">
+      <c r="E15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I15" s="59">
         <v>10</v>
       </c>
-      <c r="J15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L15" s="71">
+      <c r="J15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L15" s="59">
         <v>8086</v>
       </c>
-      <c r="M15" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N15" s="71" t="s">
+      <c r="M15" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N15" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="59" t="s">
         <v>1732</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I16" s="71">
+      <c r="E16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I16" s="59">
         <v>10</v>
       </c>
-      <c r="J16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L16" s="71">
+      <c r="J16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L16" s="59">
         <v>8086</v>
       </c>
-      <c r="M16" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N16" s="71" t="s">
+      <c r="M16" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N16" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.5">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="59" t="s">
         <v>1733</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I17" s="71">
+      <c r="E17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I17" s="59">
         <v>10</v>
       </c>
-      <c r="J17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L17" s="71">
+      <c r="J17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L17" s="59">
         <v>8086</v>
       </c>
-      <c r="M17" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N17" s="71" t="s">
+      <c r="M17" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N17" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="28.5">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="59" t="s">
         <v>1734</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I18" s="71">
+      <c r="E18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I18" s="59">
         <v>10</v>
       </c>
-      <c r="J18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L18" s="71">
+      <c r="J18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L18" s="59">
         <v>8086</v>
       </c>
-      <c r="M18" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N18" s="71" t="s">
+      <c r="M18" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N18" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="59" t="s">
         <v>1735</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I19" s="71">
+      <c r="E19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I19" s="59">
         <v>10</v>
       </c>
-      <c r="J19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L19" s="71">
+      <c r="J19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L19" s="59">
         <v>8086</v>
       </c>
-      <c r="M19" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N19" s="71" t="s">
+      <c r="M19" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N19" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="59" t="s">
         <v>1737</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I20" s="71">
+      <c r="E20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I20" s="59">
         <v>10</v>
       </c>
-      <c r="J20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L20" s="71">
+      <c r="J20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L20" s="59">
         <v>386</v>
       </c>
-      <c r="M20" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N20" s="72">
+      <c r="M20" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N20" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.5">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="59" t="s">
         <v>1738</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I21" s="71">
+      <c r="E21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I21" s="59">
         <v>10</v>
       </c>
-      <c r="J21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L21" s="71">
+      <c r="J21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L21" s="59">
         <v>386</v>
       </c>
-      <c r="M21" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N21" s="72">
+      <c r="M21" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N21" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="59" t="s">
         <v>1739</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I22" s="71">
+      <c r="E22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I22" s="59">
         <v>10</v>
       </c>
-      <c r="J22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L22" s="71">
+      <c r="J22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L22" s="59">
         <v>386</v>
       </c>
-      <c r="M22" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N22" s="72">
+      <c r="M22" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N22" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="28.5">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="59" t="s">
         <v>1740</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I23" s="71">
+      <c r="E23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I23" s="59">
         <v>10</v>
       </c>
-      <c r="J23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L23" s="71">
+      <c r="J23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L23" s="59">
         <v>386</v>
       </c>
-      <c r="M23" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N23" s="72">
+      <c r="M23" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N23" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="59" t="s">
         <v>1741</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I24" s="71">
+      <c r="E24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I24" s="59">
         <v>10</v>
       </c>
-      <c r="J24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L24" s="71">
+      <c r="J24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L24" s="59">
         <v>386</v>
       </c>
-      <c r="M24" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N24" s="72">
+      <c r="M24" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N24" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="59" t="s">
         <v>1742</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I25" s="71">
+      <c r="E25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I25" s="59">
         <v>10</v>
       </c>
-      <c r="J25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L25" s="71">
+      <c r="J25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L25" s="59">
         <v>386</v>
       </c>
-      <c r="M25" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N25" s="72">
+      <c r="M25" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N25" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.5">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="59" t="s">
         <v>1743</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I26" s="71">
+      <c r="E26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I26" s="59">
         <v>10</v>
       </c>
-      <c r="J26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L26" s="71">
+      <c r="J26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L26" s="59">
         <v>386</v>
       </c>
-      <c r="M26" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N26" s="72">
+      <c r="M26" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N26" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="59" t="s">
         <v>1744</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I27" s="71">
+      <c r="E27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I27" s="59">
         <v>10</v>
       </c>
-      <c r="J27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L27" s="71">
+      <c r="J27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L27" s="59">
         <v>386</v>
       </c>
-      <c r="M27" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N27" s="72">
+      <c r="M27" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N27" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="59" t="s">
         <v>1745</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I28" s="71">
+      <c r="E28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I28" s="59">
         <v>10</v>
       </c>
-      <c r="J28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L28" s="71">
+      <c r="J28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L28" s="59">
         <v>386</v>
       </c>
-      <c r="M28" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N28" s="72">
+      <c r="M28" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N28" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="59" t="s">
         <v>1746</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I29" s="71">
+      <c r="E29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I29" s="59">
         <v>10</v>
       </c>
-      <c r="J29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L29" s="71">
+      <c r="J29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L29" s="59">
         <v>386</v>
       </c>
-      <c r="M29" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N29" s="72">
+      <c r="M29" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N29" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="59" t="s">
         <v>1747</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I30" s="71">
+      <c r="E30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I30" s="59">
         <v>10</v>
       </c>
-      <c r="J30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L30" s="71">
+      <c r="J30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L30" s="59">
         <v>386</v>
       </c>
-      <c r="M30" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N30" s="72">
+      <c r="M30" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N30" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.5">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="59" t="s">
         <v>1748</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I31" s="71">
+      <c r="E31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I31" s="59">
         <v>10</v>
       </c>
-      <c r="J31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L31" s="71">
+      <c r="J31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L31" s="59">
         <v>386</v>
       </c>
-      <c r="M31" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N31" s="72">
+      <c r="M31" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N31" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="59" t="s">
         <v>1749</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I32" s="71">
+      <c r="E32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I32" s="59">
         <v>10</v>
       </c>
-      <c r="J32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L32" s="71">
+      <c r="J32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L32" s="59">
         <v>386</v>
       </c>
-      <c r="M32" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N32" s="72">
+      <c r="M32" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N32" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="28.5">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="59" t="s">
         <v>1750</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I33" s="71">
+      <c r="E33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I33" s="59">
         <v>10</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L33" s="71">
+      <c r="J33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L33" s="59">
         <v>386</v>
       </c>
-      <c r="M33" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N33" s="72">
+      <c r="M33" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N33" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="28.5">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="59" t="s">
         <v>1751</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I34" s="71">
+      <c r="E34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I34" s="59">
         <v>10</v>
       </c>
-      <c r="J34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L34" s="71">
+      <c r="J34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L34" s="59">
         <v>386</v>
       </c>
-      <c r="M34" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N34" s="72">
+      <c r="M34" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N34" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="59" t="s">
         <v>1752</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I35" s="71">
+      <c r="E35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I35" s="59">
         <v>10</v>
       </c>
-      <c r="J35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L35" s="71">
+      <c r="J35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L35" s="59">
         <v>386</v>
       </c>
-      <c r="M35" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N35" s="72">
+      <c r="M35" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N35" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="59" t="s">
         <v>1737</v>
       </c>
-      <c r="E36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I36" s="71">
+      <c r="E36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I36" s="59">
         <v>10</v>
       </c>
-      <c r="J36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K36" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L36" s="71">
+      <c r="J36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L36" s="59">
         <v>386</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="60">
         <v>66</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.5">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="59" t="s">
         <v>1738</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I37" s="71">
+      <c r="E37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I37" s="59">
         <v>10</v>
       </c>
-      <c r="J37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K37" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L37" s="71">
+      <c r="J37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K37" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L37" s="59">
         <v>386</v>
       </c>
-      <c r="M37" s="72">
+      <c r="M37" s="60">
         <v>66</v>
       </c>
-      <c r="N37" s="71" t="s">
+      <c r="N37" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="59" t="s">
         <v>1739</v>
       </c>
-      <c r="E38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I38" s="71">
+      <c r="E38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I38" s="59">
         <v>10</v>
       </c>
-      <c r="J38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L38" s="71">
+      <c r="J38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K38" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L38" s="59">
         <v>386</v>
       </c>
-      <c r="M38" s="72">
+      <c r="M38" s="60">
         <v>66</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28.5">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="59" t="s">
         <v>1740</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I39" s="71">
+      <c r="E39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I39" s="59">
         <v>10</v>
       </c>
-      <c r="J39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K39" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L39" s="71">
+      <c r="J39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K39" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L39" s="59">
         <v>386</v>
       </c>
-      <c r="M39" s="72">
+      <c r="M39" s="60">
         <v>66</v>
       </c>
-      <c r="N39" s="71" t="s">
+      <c r="N39" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="59" t="s">
         <v>1741</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I40" s="71">
+      <c r="E40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I40" s="59">
         <v>10</v>
       </c>
-      <c r="J40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K40" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L40" s="71">
+      <c r="J40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L40" s="59">
         <v>386</v>
       </c>
-      <c r="M40" s="72">
+      <c r="M40" s="60">
         <v>66</v>
       </c>
-      <c r="N40" s="71" t="s">
+      <c r="N40" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="59" t="s">
         <v>1742</v>
       </c>
-      <c r="E41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I41" s="71">
+      <c r="E41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I41" s="59">
         <v>10</v>
       </c>
-      <c r="J41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K41" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L41" s="71">
+      <c r="J41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K41" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L41" s="59">
         <v>386</v>
       </c>
-      <c r="M41" s="72">
+      <c r="M41" s="60">
         <v>66</v>
       </c>
-      <c r="N41" s="71" t="s">
+      <c r="N41" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.5">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="59" t="s">
         <v>1743</v>
       </c>
-      <c r="E42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I42" s="71">
+      <c r="E42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I42" s="59">
         <v>10</v>
       </c>
-      <c r="J42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K42" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L42" s="71">
+      <c r="J42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L42" s="59">
         <v>386</v>
       </c>
-      <c r="M42" s="72">
+      <c r="M42" s="60">
         <v>66</v>
       </c>
-      <c r="N42" s="71" t="s">
+      <c r="N42" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="59" t="s">
         <v>1744</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I43" s="71">
+      <c r="E43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I43" s="59">
         <v>10</v>
       </c>
-      <c r="J43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K43" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L43" s="71">
+      <c r="J43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K43" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L43" s="59">
         <v>386</v>
       </c>
-      <c r="M43" s="72">
+      <c r="M43" s="60">
         <v>66</v>
       </c>
-      <c r="N43" s="71" t="s">
+      <c r="N43" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="59" t="s">
         <v>1745</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I44" s="71">
+      <c r="E44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I44" s="59">
         <v>10</v>
       </c>
-      <c r="J44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K44" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L44" s="71">
+      <c r="J44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K44" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L44" s="59">
         <v>386</v>
       </c>
-      <c r="M44" s="72">
+      <c r="M44" s="60">
         <v>66</v>
       </c>
-      <c r="N44" s="71" t="s">
+      <c r="N44" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="59" t="s">
         <v>1746</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I45" s="71">
+      <c r="E45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I45" s="59">
         <v>10</v>
       </c>
-      <c r="J45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K45" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L45" s="71">
+      <c r="J45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K45" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L45" s="59">
         <v>386</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="60">
         <v>66</v>
       </c>
-      <c r="N45" s="71" t="s">
+      <c r="N45" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="59" t="s">
         <v>1747</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I46" s="71">
+      <c r="E46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I46" s="59">
         <v>10</v>
       </c>
-      <c r="J46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K46" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L46" s="71">
+      <c r="J46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L46" s="59">
         <v>386</v>
       </c>
-      <c r="M46" s="72">
+      <c r="M46" s="60">
         <v>66</v>
       </c>
-      <c r="N46" s="71" t="s">
+      <c r="N46" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="28.5">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="59" t="s">
         <v>1748</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I47" s="71">
+      <c r="E47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I47" s="59">
         <v>10</v>
       </c>
-      <c r="J47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K47" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L47" s="71">
+      <c r="J47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K47" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L47" s="59">
         <v>386</v>
       </c>
-      <c r="M47" s="72">
+      <c r="M47" s="60">
         <v>66</v>
       </c>
-      <c r="N47" s="71" t="s">
+      <c r="N47" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="59" t="s">
         <v>1749</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I48" s="71">
+      <c r="E48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I48" s="59">
         <v>10</v>
       </c>
-      <c r="J48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K48" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L48" s="71">
+      <c r="J48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K48" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L48" s="59">
         <v>386</v>
       </c>
-      <c r="M48" s="72">
+      <c r="M48" s="60">
         <v>66</v>
       </c>
-      <c r="N48" s="71" t="s">
+      <c r="N48" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="28.5">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="59" t="s">
         <v>1750</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I49" s="71">
+      <c r="E49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I49" s="59">
         <v>10</v>
       </c>
-      <c r="J49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K49" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L49" s="71">
+      <c r="J49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K49" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L49" s="59">
         <v>386</v>
       </c>
-      <c r="M49" s="72">
+      <c r="M49" s="60">
         <v>66</v>
       </c>
-      <c r="N49" s="71" t="s">
+      <c r="N49" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="28.5">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="59" t="s">
         <v>1751</v>
       </c>
-      <c r="E50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I50" s="71">
+      <c r="E50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I50" s="59">
         <v>10</v>
       </c>
-      <c r="J50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K50" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L50" s="71">
+      <c r="J50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K50" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L50" s="59">
         <v>386</v>
       </c>
-      <c r="M50" s="72">
+      <c r="M50" s="60">
         <v>66</v>
       </c>
-      <c r="N50" s="71" t="s">
+      <c r="N50" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="59" t="s">
         <v>1752</v>
       </c>
-      <c r="E51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I51" s="71">
+      <c r="E51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I51" s="59">
         <v>10</v>
       </c>
-      <c r="J51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K51" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L51" s="71">
+      <c r="J51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K51" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L51" s="59">
         <v>386</v>
       </c>
-      <c r="M51" s="72">
+      <c r="M51" s="60">
         <v>66</v>
       </c>
-      <c r="N51" s="71" t="s">
+      <c r="N51" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="28.5">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="59" t="s">
         <v>1753</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="59" t="s">
         <v>1754</v>
       </c>
-      <c r="E52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I52" s="71">
+      <c r="E52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I52" s="59">
         <v>10</v>
       </c>
-      <c r="J52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L52" s="71">
+      <c r="J52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L52" s="59">
         <v>8086</v>
       </c>
-      <c r="M52" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N52" s="72">
+      <c r="M52" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N52" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="28.5">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="59" t="s">
         <v>1753</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="59" t="s">
         <v>1754</v>
       </c>
-      <c r="E53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I53" s="71">
+      <c r="E53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I53" s="59">
         <v>10</v>
       </c>
-      <c r="J53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K53" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L53" s="71">
+      <c r="J53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K53" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L53" s="59">
         <v>386</v>
       </c>
-      <c r="M53" s="72">
+      <c r="M53" s="60">
         <v>67</v>
       </c>
-      <c r="N53" s="71" t="s">
+      <c r="N53" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="14.25">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="59" t="s">
         <v>1756</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="59">
         <v>11</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="59">
         <v>100</v>
       </c>
-      <c r="G54" s="71">
+      <c r="G54" s="59">
         <v>3</v>
       </c>
-      <c r="H54" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I54" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J54" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K54" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L54" s="71">
+      <c r="H54" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J54" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K54" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L54" s="59">
         <v>8086</v>
       </c>
-      <c r="M54" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N54" s="72">
+      <c r="M54" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N54" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="14.25">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="59" t="s">
         <v>1758</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E55" s="71">
+      <c r="E55" s="59">
         <v>11</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="59">
         <v>100</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="59">
         <v>3</v>
       </c>
-      <c r="H55" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J55" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K55" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L55" s="71">
+      <c r="H55" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J55" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K55" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L55" s="59">
         <v>386</v>
       </c>
-      <c r="M55" s="72">
+      <c r="M55" s="60">
         <v>66</v>
       </c>
-      <c r="N55" s="71" t="s">
+      <c r="N55" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="14.25">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="59" t="s">
         <v>1759</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E56" s="71">
+      <c r="E56" s="59">
         <v>0</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="59">
         <v>100</v>
       </c>
-      <c r="G56" s="71">
+      <c r="G56" s="59">
         <v>5</v>
       </c>
-      <c r="H56" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I56" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J56" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K56" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L56" s="71">
+      <c r="H56" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J56" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K56" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L56" s="59">
         <v>8086</v>
       </c>
-      <c r="M56" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N56" s="72">
+      <c r="M56" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N56" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="14.25">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="59" t="s">
         <v>1760</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E57" s="71">
+      <c r="E57" s="59">
         <v>0</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="59">
         <v>100</v>
       </c>
-      <c r="G57" s="71">
+      <c r="G57" s="59">
         <v>5</v>
       </c>
-      <c r="H57" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J57" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L57" s="71">
+      <c r="H57" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I57" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J57" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K57" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L57" s="59">
         <v>386</v>
       </c>
-      <c r="M57" s="72">
+      <c r="M57" s="60">
         <v>66</v>
       </c>
-      <c r="N57" s="72">
+      <c r="N57" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="14.25">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="59" t="s">
         <v>1761</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E58" s="71">
+      <c r="E58" s="59">
         <v>0</v>
       </c>
-      <c r="F58" s="71">
+      <c r="F58" s="59">
         <v>100</v>
       </c>
-      <c r="G58" s="71">
+      <c r="G58" s="59">
         <v>5</v>
       </c>
-      <c r="H58" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J58" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L58" s="71">
+      <c r="H58" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I58" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J58" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K58" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L58" s="59">
         <v>386</v>
       </c>
-      <c r="M58" s="72">
+      <c r="M58" s="60">
         <v>67</v>
       </c>
-      <c r="N58" s="72">
+      <c r="N58" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="14.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="59" t="s">
         <v>1762</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E59" s="71">
+      <c r="E59" s="59">
         <v>0</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59" s="59">
         <v>100</v>
       </c>
-      <c r="G59" s="71">
+      <c r="G59" s="59">
         <v>5</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I59" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J59" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K59" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L59" s="71">
+      <c r="H59" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I59" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J59" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K59" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L59" s="59">
         <v>386</v>
       </c>
-      <c r="M59" s="72">
+      <c r="M59" s="60">
         <v>6766</v>
       </c>
-      <c r="N59" s="71" t="s">
+      <c r="N59" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="28.5">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="59" t="s">
         <v>1763</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E60" s="71">
+      <c r="E60" s="59">
         <v>1</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="59">
         <v>100</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="59">
         <v>5</v>
       </c>
-      <c r="H60" s="71">
+      <c r="H60" s="59">
         <v>9</v>
       </c>
-      <c r="I60" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J60" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K60" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L60" s="71">
+      <c r="I60" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J60" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K60" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L60" s="59">
         <v>8086</v>
       </c>
-      <c r="M60" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N60" s="72">
+      <c r="M60" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N60" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="28.5">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="59" t="s">
         <v>1764</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E61" s="71">
+      <c r="E61" s="59">
         <v>1</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="59">
         <v>100</v>
       </c>
-      <c r="G61" s="71">
+      <c r="G61" s="59">
         <v>5</v>
       </c>
-      <c r="H61" s="71">
+      <c r="H61" s="59">
         <v>9</v>
       </c>
-      <c r="I61" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J61" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K61" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L61" s="71">
+      <c r="I61" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J61" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K61" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L61" s="59">
         <v>386</v>
       </c>
-      <c r="M61" s="72">
+      <c r="M61" s="60">
         <v>66</v>
       </c>
-      <c r="N61" s="72">
+      <c r="N61" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="28.5">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="59" t="s">
         <v>1765</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E62" s="71">
+      <c r="E62" s="59">
         <v>1</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="59">
         <v>100</v>
       </c>
-      <c r="G62" s="71">
+      <c r="G62" s="59">
         <v>5</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="59">
         <v>9</v>
       </c>
-      <c r="I62" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J62" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K62" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L62" s="71">
+      <c r="I62" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J62" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K62" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L62" s="59">
         <v>386</v>
       </c>
-      <c r="M62" s="72">
+      <c r="M62" s="60">
         <v>67</v>
       </c>
-      <c r="N62" s="72">
+      <c r="N62" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="28.5">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="59" t="s">
         <v>1766</v>
       </c>
-      <c r="D63" s="71" t="s">
+      <c r="D63" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E63" s="71">
+      <c r="E63" s="59">
         <v>1</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="59">
         <v>100</v>
       </c>
-      <c r="G63" s="71">
+      <c r="G63" s="59">
         <v>5</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="59">
         <v>9</v>
       </c>
-      <c r="I63" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J63" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K63" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L63" s="71">
+      <c r="I63" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J63" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K63" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L63" s="59">
         <v>386</v>
       </c>
-      <c r="M63" s="72">
+      <c r="M63" s="60">
         <v>6766</v>
       </c>
-      <c r="N63" s="71" t="s">
+      <c r="N63" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.5">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="59" t="s">
         <v>1767</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="59">
         <v>10</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="59">
         <v>100</v>
       </c>
-      <c r="G64" s="71">
+      <c r="G64" s="59">
         <v>5</v>
       </c>
-      <c r="H64" s="71">
+      <c r="H64" s="59">
         <v>9</v>
       </c>
-      <c r="I64" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J64" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K64" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L64" s="71">
+      <c r="I64" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J64" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K64" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L64" s="59">
         <v>8086</v>
       </c>
-      <c r="M64" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N64" s="72">
+      <c r="M64" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N64" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="28.5">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="59" t="s">
         <v>1768</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E65" s="71">
+      <c r="E65" s="59">
         <v>10</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="59">
         <v>100</v>
       </c>
-      <c r="G65" s="71">
+      <c r="G65" s="59">
         <v>5</v>
       </c>
-      <c r="H65" s="71">
+      <c r="H65" s="59">
         <v>9</v>
       </c>
-      <c r="I65" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J65" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K65" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L65" s="71">
+      <c r="I65" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J65" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K65" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L65" s="59">
         <v>386</v>
       </c>
-      <c r="M65" s="72">
+      <c r="M65" s="60">
         <v>66</v>
       </c>
-      <c r="N65" s="72">
+      <c r="N65" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="28.5">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="59" t="s">
         <v>1769</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E66" s="71">
+      <c r="E66" s="59">
         <v>10</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="59">
         <v>100</v>
       </c>
-      <c r="G66" s="71">
+      <c r="G66" s="59">
         <v>5</v>
       </c>
-      <c r="H66" s="71">
+      <c r="H66" s="59">
         <v>9</v>
       </c>
-      <c r="I66" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J66" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K66" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L66" s="71">
+      <c r="I66" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J66" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K66" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L66" s="59">
         <v>386</v>
       </c>
-      <c r="M66" s="72">
+      <c r="M66" s="60">
         <v>67</v>
       </c>
-      <c r="N66" s="72">
+      <c r="N66" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="28.5">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E67" s="71">
+      <c r="E67" s="59">
         <v>10</v>
       </c>
-      <c r="F67" s="71">
+      <c r="F67" s="59">
         <v>100</v>
       </c>
-      <c r="G67" s="71">
+      <c r="G67" s="59">
         <v>5</v>
       </c>
-      <c r="H67" s="71">
+      <c r="H67" s="59">
         <v>9</v>
       </c>
-      <c r="I67" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J67" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K67" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L67" s="71">
+      <c r="I67" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J67" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K67" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L67" s="59">
         <v>386</v>
       </c>
-      <c r="M67" s="72">
+      <c r="M67" s="60">
         <v>6766</v>
       </c>
-      <c r="N67" s="71" t="s">
+      <c r="N67" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="28.5">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="59" t="s">
         <v>1771</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E68" s="71">
+      <c r="E68" s="59">
         <v>0</v>
       </c>
-      <c r="F68" s="71">
+      <c r="F68" s="59">
         <v>100</v>
       </c>
-      <c r="G68" s="71">
+      <c r="G68" s="59">
         <v>5</v>
       </c>
-      <c r="H68" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I68" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J68" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K68" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L68" s="71">
+      <c r="H68" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I68" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J68" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K68" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L68" s="59">
         <v>8086</v>
       </c>
-      <c r="M68" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N68" s="72">
+      <c r="M68" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N68" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="28.5">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E69" s="71">
+      <c r="E69" s="59">
         <v>0</v>
       </c>
-      <c r="F69" s="71">
+      <c r="F69" s="59">
         <v>100</v>
       </c>
-      <c r="G69" s="71">
+      <c r="G69" s="59">
         <v>5</v>
       </c>
-      <c r="H69" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I69" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J69" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K69" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L69" s="71">
+      <c r="H69" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I69" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J69" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K69" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L69" s="59">
         <v>386</v>
       </c>
-      <c r="M69" s="72">
+      <c r="M69" s="60">
         <v>66</v>
       </c>
-      <c r="N69" s="72">
+      <c r="N69" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="28.5">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="59" t="s">
         <v>1773</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E70" s="71">
+      <c r="E70" s="59">
         <v>0</v>
       </c>
-      <c r="F70" s="71">
+      <c r="F70" s="59">
         <v>100</v>
       </c>
-      <c r="G70" s="71">
+      <c r="G70" s="59">
         <v>5</v>
       </c>
-      <c r="H70" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I70" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J70" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K70" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L70" s="71">
+      <c r="H70" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I70" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J70" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K70" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L70" s="59">
         <v>386</v>
       </c>
-      <c r="M70" s="72">
+      <c r="M70" s="60">
         <v>67</v>
       </c>
-      <c r="N70" s="72">
+      <c r="N70" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="28.5">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="59" t="s">
         <v>1774</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="59">
         <v>0</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="59">
         <v>100</v>
       </c>
-      <c r="G71" s="71">
+      <c r="G71" s="59">
         <v>5</v>
       </c>
-      <c r="H71" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I71" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J71" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K71" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L71" s="71">
+      <c r="H71" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I71" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J71" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K71" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L71" s="59">
         <v>386</v>
       </c>
-      <c r="M71" s="72">
+      <c r="M71" s="60">
         <v>6766</v>
       </c>
-      <c r="N71" s="71" t="s">
+      <c r="N71" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="42.75">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="59" t="s">
         <v>1775</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E72" s="71">
+      <c r="E72" s="59">
         <v>1</v>
       </c>
-      <c r="F72" s="71">
+      <c r="F72" s="59">
         <v>100</v>
       </c>
-      <c r="G72" s="71">
+      <c r="G72" s="59">
         <v>5</v>
       </c>
-      <c r="H72" s="71">
+      <c r="H72" s="59">
         <v>9</v>
       </c>
-      <c r="I72" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J72" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K72" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L72" s="71">
+      <c r="I72" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J72" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K72" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L72" s="59">
         <v>8086</v>
       </c>
-      <c r="M72" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N72" s="72">
+      <c r="M72" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N72" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="42.75">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E73" s="71">
+      <c r="E73" s="59">
         <v>1</v>
       </c>
-      <c r="F73" s="71">
+      <c r="F73" s="59">
         <v>100</v>
       </c>
-      <c r="G73" s="71">
+      <c r="G73" s="59">
         <v>5</v>
       </c>
-      <c r="H73" s="71">
+      <c r="H73" s="59">
         <v>9</v>
       </c>
-      <c r="I73" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J73" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K73" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L73" s="71">
+      <c r="I73" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J73" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K73" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L73" s="59">
         <v>386</v>
       </c>
-      <c r="M73" s="72">
+      <c r="M73" s="60">
         <v>66</v>
       </c>
-      <c r="N73" s="72">
+      <c r="N73" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="42.75">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="59" t="s">
         <v>1777</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E74" s="71">
+      <c r="E74" s="59">
         <v>1</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="59">
         <v>100</v>
       </c>
-      <c r="G74" s="71">
+      <c r="G74" s="59">
         <v>5</v>
       </c>
-      <c r="H74" s="71">
+      <c r="H74" s="59">
         <v>9</v>
       </c>
-      <c r="I74" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J74" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K74" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L74" s="71">
+      <c r="I74" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J74" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K74" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L74" s="59">
         <v>386</v>
       </c>
-      <c r="M74" s="72">
+      <c r="M74" s="60">
         <v>67</v>
       </c>
-      <c r="N74" s="72">
+      <c r="N74" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="42.75">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C75" s="71" t="s">
+      <c r="C75" s="59" t="s">
         <v>1778</v>
       </c>
-      <c r="D75" s="71" t="s">
+      <c r="D75" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E75" s="71">
+      <c r="E75" s="59">
         <v>1</v>
       </c>
-      <c r="F75" s="71">
+      <c r="F75" s="59">
         <v>100</v>
       </c>
-      <c r="G75" s="71">
+      <c r="G75" s="59">
         <v>5</v>
       </c>
-      <c r="H75" s="71">
+      <c r="H75" s="59">
         <v>9</v>
       </c>
-      <c r="I75" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J75" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K75" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L75" s="71">
+      <c r="I75" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J75" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K75" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L75" s="59">
         <v>386</v>
       </c>
-      <c r="M75" s="72">
+      <c r="M75" s="60">
         <v>6766</v>
       </c>
-      <c r="N75" s="71" t="s">
+      <c r="N75" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="42.75">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="59">
         <v>10</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="59">
         <v>100</v>
       </c>
-      <c r="G76" s="71">
+      <c r="G76" s="59">
         <v>5</v>
       </c>
-      <c r="H76" s="71">
+      <c r="H76" s="59">
         <v>9</v>
       </c>
-      <c r="I76" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J76" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K76" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L76" s="71">
+      <c r="I76" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J76" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K76" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L76" s="59">
         <v>8086</v>
       </c>
-      <c r="M76" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N76" s="72">
+      <c r="M76" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N76" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="42.75">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="59" t="s">
         <v>1780</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E77" s="71">
+      <c r="E77" s="59">
         <v>10</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="59">
         <v>100</v>
       </c>
-      <c r="G77" s="71">
+      <c r="G77" s="59">
         <v>5</v>
       </c>
-      <c r="H77" s="71">
+      <c r="H77" s="59">
         <v>9</v>
       </c>
-      <c r="I77" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J77" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K77" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L77" s="71">
+      <c r="I77" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J77" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K77" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L77" s="59">
         <v>386</v>
       </c>
-      <c r="M77" s="72">
+      <c r="M77" s="60">
         <v>66</v>
       </c>
-      <c r="N77" s="72">
+      <c r="N77" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="42.75">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="59" t="s">
         <v>1781</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E78" s="71">
+      <c r="E78" s="59">
         <v>10</v>
       </c>
-      <c r="F78" s="71">
+      <c r="F78" s="59">
         <v>100</v>
       </c>
-      <c r="G78" s="71">
+      <c r="G78" s="59">
         <v>5</v>
       </c>
-      <c r="H78" s="71">
+      <c r="H78" s="59">
         <v>9</v>
       </c>
-      <c r="I78" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J78" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K78" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L78" s="71">
+      <c r="I78" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J78" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K78" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L78" s="59">
         <v>386</v>
       </c>
-      <c r="M78" s="72">
+      <c r="M78" s="60">
         <v>67</v>
       </c>
-      <c r="N78" s="72">
+      <c r="N78" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="42.75">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="71" t="s">
+      <c r="B79" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="59" t="s">
         <v>1782</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E79" s="71">
+      <c r="E79" s="59">
         <v>10</v>
       </c>
-      <c r="F79" s="71">
+      <c r="F79" s="59">
         <v>100</v>
       </c>
-      <c r="G79" s="71">
+      <c r="G79" s="59">
         <v>5</v>
       </c>
-      <c r="H79" s="71">
+      <c r="H79" s="59">
         <v>9</v>
       </c>
-      <c r="I79" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J79" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K79" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L79" s="71">
+      <c r="I79" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J79" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K79" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L79" s="59">
         <v>386</v>
       </c>
-      <c r="M79" s="72">
+      <c r="M79" s="60">
         <v>6766</v>
       </c>
-      <c r="N79" s="71" t="s">
+      <c r="N79" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="28.5">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E80" s="71">
+      <c r="E80" s="59">
         <v>0</v>
       </c>
-      <c r="F80" s="71">
+      <c r="F80" s="59">
         <v>101</v>
       </c>
-      <c r="G80" s="71">
+      <c r="G80" s="59">
         <v>5</v>
       </c>
-      <c r="H80" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I80" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J80" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K80" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L80" s="71">
+      <c r="H80" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I80" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J80" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K80" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L80" s="59">
         <v>8086</v>
       </c>
-      <c r="M80" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N80" s="72">
+      <c r="M80" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N80" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="28.5">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="59" t="s">
         <v>1784</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E81" s="71">
+      <c r="E81" s="59">
         <v>0</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="59">
         <v>101</v>
       </c>
-      <c r="G81" s="71">
+      <c r="G81" s="59">
         <v>5</v>
       </c>
-      <c r="H81" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I81" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J81" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K81" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L81" s="71">
+      <c r="H81" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J81" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K81" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L81" s="59">
         <v>386</v>
       </c>
-      <c r="M81" s="72">
+      <c r="M81" s="60">
         <v>66</v>
       </c>
-      <c r="N81" s="72">
+      <c r="N81" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="28.5">
-      <c r="A82" s="71" t="s">
+      <c r="A82" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="C82" s="59" t="s">
         <v>1785</v>
       </c>
-      <c r="D82" s="71" t="s">
+      <c r="D82" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E82" s="71">
+      <c r="E82" s="59">
         <v>0</v>
       </c>
-      <c r="F82" s="71">
+      <c r="F82" s="59">
         <v>101</v>
       </c>
-      <c r="G82" s="71">
+      <c r="G82" s="59">
         <v>5</v>
       </c>
-      <c r="H82" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I82" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J82" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K82" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L82" s="71">
+      <c r="H82" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I82" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J82" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K82" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L82" s="59">
         <v>386</v>
       </c>
-      <c r="M82" s="72">
+      <c r="M82" s="60">
         <v>67</v>
       </c>
-      <c r="N82" s="72">
+      <c r="N82" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="28.5">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="59" t="s">
         <v>1786</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E83" s="71">
+      <c r="E83" s="59">
         <v>0</v>
       </c>
-      <c r="F83" s="71">
+      <c r="F83" s="59">
         <v>101</v>
       </c>
-      <c r="G83" s="71">
+      <c r="G83" s="59">
         <v>5</v>
       </c>
-      <c r="H83" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I83" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J83" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K83" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L83" s="71">
+      <c r="H83" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I83" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J83" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K83" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L83" s="59">
         <v>386</v>
       </c>
-      <c r="M83" s="72">
+      <c r="M83" s="60">
         <v>6766</v>
       </c>
-      <c r="N83" s="71" t="s">
+      <c r="N83" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="42.75">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="71" t="s">
+      <c r="B84" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C84" s="71" t="s">
+      <c r="C84" s="59" t="s">
         <v>1787</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E84" s="71">
+      <c r="E84" s="59">
         <v>1</v>
       </c>
-      <c r="F84" s="71">
+      <c r="F84" s="59">
         <v>101</v>
       </c>
-      <c r="G84" s="71">
+      <c r="G84" s="59">
         <v>5</v>
       </c>
-      <c r="H84" s="71">
+      <c r="H84" s="59">
         <v>9</v>
       </c>
-      <c r="I84" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J84" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K84" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L84" s="71">
+      <c r="I84" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J84" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K84" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L84" s="59">
         <v>8086</v>
       </c>
-      <c r="M84" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N84" s="72">
+      <c r="M84" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N84" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="42.75">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C85" s="71" t="s">
+      <c r="C85" s="59" t="s">
         <v>1788</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D85" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E85" s="71">
+      <c r="E85" s="59">
         <v>1</v>
       </c>
-      <c r="F85" s="71">
+      <c r="F85" s="59">
         <v>101</v>
       </c>
-      <c r="G85" s="71">
+      <c r="G85" s="59">
         <v>5</v>
       </c>
-      <c r="H85" s="71">
+      <c r="H85" s="59">
         <v>9</v>
       </c>
-      <c r="I85" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J85" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K85" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L85" s="71">
+      <c r="I85" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J85" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K85" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L85" s="59">
         <v>386</v>
       </c>
-      <c r="M85" s="72">
+      <c r="M85" s="60">
         <v>66</v>
       </c>
-      <c r="N85" s="72">
+      <c r="N85" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="42.75">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C86" s="71" t="s">
+      <c r="C86" s="59" t="s">
         <v>1789</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E86" s="71">
+      <c r="E86" s="59">
         <v>1</v>
       </c>
-      <c r="F86" s="71">
+      <c r="F86" s="59">
         <v>101</v>
       </c>
-      <c r="G86" s="71">
+      <c r="G86" s="59">
         <v>5</v>
       </c>
-      <c r="H86" s="71">
+      <c r="H86" s="59">
         <v>9</v>
       </c>
-      <c r="I86" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J86" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K86" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L86" s="71">
+      <c r="I86" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J86" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K86" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L86" s="59">
         <v>386</v>
       </c>
-      <c r="M86" s="72">
+      <c r="M86" s="60">
         <v>67</v>
       </c>
-      <c r="N86" s="72">
+      <c r="N86" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="42.75">
-      <c r="A87" s="71" t="s">
+      <c r="A87" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C87" s="71" t="s">
+      <c r="C87" s="59" t="s">
         <v>1790</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="D87" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E87" s="71">
+      <c r="E87" s="59">
         <v>1</v>
       </c>
-      <c r="F87" s="71">
+      <c r="F87" s="59">
         <v>101</v>
       </c>
-      <c r="G87" s="71">
+      <c r="G87" s="59">
         <v>5</v>
       </c>
-      <c r="H87" s="71">
+      <c r="H87" s="59">
         <v>9</v>
       </c>
-      <c r="I87" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J87" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K87" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L87" s="71">
+      <c r="I87" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J87" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K87" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L87" s="59">
         <v>386</v>
       </c>
-      <c r="M87" s="72">
+      <c r="M87" s="60">
         <v>6766</v>
       </c>
-      <c r="N87" s="71" t="s">
+      <c r="N87" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="42.75">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="59" t="s">
         <v>1791</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D88" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E88" s="71">
+      <c r="E88" s="59">
         <v>10</v>
       </c>
-      <c r="F88" s="71">
+      <c r="F88" s="59">
         <v>101</v>
       </c>
-      <c r="G88" s="71">
+      <c r="G88" s="59">
         <v>5</v>
       </c>
-      <c r="H88" s="71">
+      <c r="H88" s="59">
         <v>9</v>
       </c>
-      <c r="I88" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J88" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K88" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L88" s="71">
+      <c r="I88" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J88" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K88" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L88" s="59">
         <v>8086</v>
       </c>
-      <c r="M88" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N88" s="72">
+      <c r="M88" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N88" s="60">
         <v>6766</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="42.75">
-      <c r="A89" s="71" t="s">
+      <c r="A89" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="59" t="s">
         <v>1792</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E89" s="71">
+      <c r="E89" s="59">
         <v>10</v>
       </c>
-      <c r="F89" s="71">
+      <c r="F89" s="59">
         <v>101</v>
       </c>
-      <c r="G89" s="71">
+      <c r="G89" s="59">
         <v>5</v>
       </c>
-      <c r="H89" s="71">
+      <c r="H89" s="59">
         <v>9</v>
       </c>
-      <c r="I89" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J89" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K89" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L89" s="71">
+      <c r="I89" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J89" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K89" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L89" s="59">
         <v>386</v>
       </c>
-      <c r="M89" s="72">
+      <c r="M89" s="60">
         <v>66</v>
       </c>
-      <c r="N89" s="72">
+      <c r="N89" s="60">
         <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="42.75">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C90" s="71" t="s">
+      <c r="C90" s="59" t="s">
         <v>1793</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E90" s="71">
+      <c r="E90" s="59">
         <v>10</v>
       </c>
-      <c r="F90" s="71">
+      <c r="F90" s="59">
         <v>101</v>
       </c>
-      <c r="G90" s="71">
+      <c r="G90" s="59">
         <v>5</v>
       </c>
-      <c r="H90" s="71">
+      <c r="H90" s="59">
         <v>9</v>
       </c>
-      <c r="I90" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J90" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K90" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L90" s="71">
+      <c r="I90" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J90" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K90" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L90" s="59">
         <v>386</v>
       </c>
-      <c r="M90" s="72">
+      <c r="M90" s="60">
         <v>67</v>
       </c>
-      <c r="N90" s="72">
+      <c r="N90" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="42.75">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C91" s="71" t="s">
+      <c r="C91" s="59" t="s">
         <v>1794</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="59" t="s">
         <v>1757</v>
       </c>
-      <c r="E91" s="71">
+      <c r="E91" s="59">
         <v>10</v>
       </c>
-      <c r="F91" s="71">
+      <c r="F91" s="59">
         <v>101</v>
       </c>
-      <c r="G91" s="71">
+      <c r="G91" s="59">
         <v>5</v>
       </c>
-      <c r="H91" s="71">
+      <c r="H91" s="59">
         <v>9</v>
       </c>
-      <c r="I91" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J91" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K91" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L91" s="71">
+      <c r="I91" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J91" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K91" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L91" s="59">
         <v>386</v>
       </c>
-      <c r="M91" s="72">
+      <c r="M91" s="60">
         <v>6766</v>
       </c>
-      <c r="N91" s="71" t="s">
+      <c r="N91" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="14.25">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="C92" s="59" t="s">
         <v>1728</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="59" t="s">
         <v>1795</v>
       </c>
-      <c r="E92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I92" s="71">
+      <c r="E92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I92" s="59">
         <v>10</v>
       </c>
-      <c r="J92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L92" s="71">
+      <c r="J92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L92" s="59">
         <v>8086</v>
       </c>
-      <c r="M92" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N92" s="71" t="s">
+      <c r="M92" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N92" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="14.25">
-      <c r="A93" s="71" t="s">
+      <c r="A93" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C93" s="71" t="s">
+      <c r="C93" s="59" t="s">
         <v>1796</v>
       </c>
-      <c r="D93" s="71" t="s">
+      <c r="D93" s="59" t="s">
         <v>1797</v>
       </c>
-      <c r="E93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I93" s="71">
+      <c r="E93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I93" s="59">
         <v>10</v>
       </c>
-      <c r="J93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L93" s="71">
+      <c r="J93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L93" s="59">
         <v>8086</v>
       </c>
-      <c r="M93" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N93" s="72">
+      <c r="M93" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N93" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="14.25">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C94" s="71" t="s">
+      <c r="C94" s="59" t="s">
         <v>1798</v>
       </c>
-      <c r="D94" s="71" t="s">
+      <c r="D94" s="59" t="s">
         <v>1797</v>
       </c>
-      <c r="E94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I94" s="71">
+      <c r="E94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I94" s="59">
         <v>10</v>
       </c>
-      <c r="J94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K94" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L94" s="71">
+      <c r="J94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K94" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L94" s="59">
         <v>386</v>
       </c>
-      <c r="M94" s="72">
+      <c r="M94" s="60">
         <v>66</v>
       </c>
-      <c r="N94" s="71" t="s">
+      <c r="N94" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="14.25">
-      <c r="A95" s="71" t="s">
+      <c r="A95" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C95" s="71" t="s">
+      <c r="C95" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D95" s="71" t="s">
+      <c r="D95" s="59" t="s">
         <v>1797</v>
       </c>
-      <c r="E95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I95" s="71">
+      <c r="E95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I95" s="59">
         <v>10</v>
       </c>
-      <c r="J95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L95" s="71">
+      <c r="J95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L95" s="59">
         <v>8086</v>
       </c>
-      <c r="M95" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N95" s="72">
+      <c r="M95" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N95" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="14.25">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C96" s="71" t="s">
+      <c r="C96" s="59" t="s">
         <v>1736</v>
       </c>
-      <c r="D96" s="71" t="s">
+      <c r="D96" s="59" t="s">
         <v>1797</v>
       </c>
-      <c r="E96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I96" s="71">
+      <c r="E96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I96" s="59">
         <v>10</v>
       </c>
-      <c r="J96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K96" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L96" s="71">
+      <c r="J96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K96" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L96" s="59">
         <v>386</v>
       </c>
-      <c r="M96" s="72">
+      <c r="M96" s="60">
         <v>66</v>
       </c>
-      <c r="N96" s="71" t="s">
+      <c r="N96" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="42.75">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="71" t="s">
+      <c r="B97" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="59" t="s">
         <v>1799</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="59" t="s">
         <v>1800</v>
       </c>
-      <c r="E97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I97" s="71">
+      <c r="E97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I97" s="59">
         <v>10</v>
       </c>
-      <c r="J97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L97" s="71">
+      <c r="J97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L97" s="59">
         <v>8086</v>
       </c>
-      <c r="M97" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N97" s="72">
+      <c r="M97" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N97" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="42.75">
-      <c r="A98" s="71" t="s">
+      <c r="A98" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="71" t="s">
+      <c r="B98" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="59" t="s">
         <v>1801</v>
       </c>
-      <c r="D98" s="71" t="s">
+      <c r="D98" s="59" t="s">
         <v>1800</v>
       </c>
-      <c r="E98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I98" s="71">
+      <c r="E98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I98" s="59">
         <v>10</v>
       </c>
-      <c r="J98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K98" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L98" s="71">
+      <c r="J98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K98" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L98" s="59">
         <v>386</v>
       </c>
-      <c r="M98" s="72">
+      <c r="M98" s="60">
         <v>66</v>
       </c>
-      <c r="N98" s="71" t="s">
+      <c r="N98" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="28.5">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="71" t="s">
+      <c r="B99" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="59" t="s">
         <v>1802</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D99" s="59" t="s">
         <v>1800</v>
       </c>
-      <c r="E99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I99" s="71">
+      <c r="E99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I99" s="59">
         <v>12</v>
       </c>
-      <c r="J99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L99" s="71">
+      <c r="J99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L99" s="59">
         <v>8086</v>
       </c>
-      <c r="M99" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N99" s="72">
+      <c r="M99" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N99" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="28.5">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="59" t="s">
         <v>1755</v>
       </c>
-      <c r="C100" s="71" t="s">
+      <c r="C100" s="59" t="s">
         <v>1803</v>
       </c>
-      <c r="D100" s="71" t="s">
+      <c r="D100" s="59" t="s">
         <v>1800</v>
       </c>
-      <c r="E100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I100" s="71">
+      <c r="E100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I100" s="59">
         <v>12</v>
       </c>
-      <c r="J100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K100" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L100" s="71">
+      <c r="J100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K100" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L100" s="59">
         <v>386</v>
       </c>
-      <c r="M100" s="72">
+      <c r="M100" s="60">
         <v>66</v>
       </c>
-      <c r="N100" s="71" t="s">
+      <c r="N100" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="14.25">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="71" t="s">
+      <c r="B101" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="C101" s="59" t="s">
         <v>1756</v>
       </c>
-      <c r="D101" s="71" t="s">
+      <c r="D101" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E101" s="71">
+      <c r="E101" s="59">
         <v>11</v>
       </c>
-      <c r="F101" s="71">
+      <c r="F101" s="59">
         <v>110</v>
       </c>
-      <c r="G101" s="71">
+      <c r="G101" s="59">
         <v>3</v>
       </c>
-      <c r="H101" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I101" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J101" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K101" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L101" s="71" t="s">
+      <c r="H101" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I101" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J101" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K101" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L101" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M101" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N101" s="72">
+      <c r="M101" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N101" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="14.25">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="71" t="s">
+      <c r="B102" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="71" t="s">
+      <c r="C102" s="59" t="s">
         <v>1758</v>
       </c>
-      <c r="D102" s="71" t="s">
+      <c r="D102" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E102" s="71">
+      <c r="E102" s="59">
         <v>11</v>
       </c>
-      <c r="F102" s="71">
+      <c r="F102" s="59">
         <v>110</v>
       </c>
-      <c r="G102" s="71">
+      <c r="G102" s="59">
         <v>3</v>
       </c>
-      <c r="H102" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I102" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J102" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K102" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L102" s="71" t="s">
+      <c r="H102" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I102" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J102" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K102" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L102" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M102" s="72">
+      <c r="M102" s="60">
         <v>66</v>
       </c>
-      <c r="N102" s="71" t="s">
+      <c r="N102" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="14.25">
-      <c r="A103" s="71" t="s">
+      <c r="A103" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="71" t="s">
+      <c r="B103" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="71" t="s">
+      <c r="C103" s="59" t="s">
         <v>1759</v>
       </c>
-      <c r="D103" s="71" t="s">
+      <c r="D103" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E103" s="71">
+      <c r="E103" s="59">
         <v>0</v>
       </c>
-      <c r="F103" s="71">
+      <c r="F103" s="59">
         <v>110</v>
       </c>
-      <c r="G103" s="71">
+      <c r="G103" s="59">
         <v>5</v>
       </c>
-      <c r="H103" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I103" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J103" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K103" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L103" s="71" t="s">
+      <c r="H103" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I103" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J103" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K103" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L103" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M103" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N103" s="72">
+      <c r="M103" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N103" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="14.25">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="59" t="s">
         <v>1760</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E104" s="71">
+      <c r="E104" s="59">
         <v>0</v>
       </c>
-      <c r="F104" s="71">
+      <c r="F104" s="59">
         <v>110</v>
       </c>
-      <c r="G104" s="71">
+      <c r="G104" s="59">
         <v>5</v>
       </c>
-      <c r="H104" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I104" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J104" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K104" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L104" s="71" t="s">
+      <c r="H104" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I104" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J104" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K104" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L104" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M104" s="72">
+      <c r="M104" s="60">
         <v>66</v>
       </c>
-      <c r="N104" s="71" t="s">
+      <c r="N104" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="14.25">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="71" t="s">
+      <c r="C105" s="59" t="s">
         <v>1761</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E105" s="71">
+      <c r="E105" s="59">
         <v>0</v>
       </c>
-      <c r="F105" s="71">
+      <c r="F105" s="59">
         <v>110</v>
       </c>
-      <c r="G105" s="71">
+      <c r="G105" s="59">
         <v>5</v>
       </c>
-      <c r="H105" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I105" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J105" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K105" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L105" s="71" t="s">
+      <c r="H105" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I105" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J105" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K105" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L105" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M105" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N105" s="72">
+      <c r="M105" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N105" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="14.25">
-      <c r="A106" s="71" t="s">
+      <c r="A106" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B106" s="71" t="s">
+      <c r="B106" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C106" s="59" t="s">
         <v>1762</v>
       </c>
-      <c r="D106" s="71" t="s">
+      <c r="D106" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E106" s="71">
+      <c r="E106" s="59">
         <v>0</v>
       </c>
-      <c r="F106" s="71">
+      <c r="F106" s="59">
         <v>110</v>
       </c>
-      <c r="G106" s="71">
+      <c r="G106" s="59">
         <v>5</v>
       </c>
-      <c r="H106" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I106" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J106" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K106" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L106" s="71" t="s">
+      <c r="H106" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I106" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J106" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K106" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L106" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M106" s="72">
+      <c r="M106" s="60">
         <v>66</v>
       </c>
-      <c r="N106" s="71" t="s">
+      <c r="N106" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="28.5">
-      <c r="A107" s="71" t="s">
+      <c r="A107" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="71" t="s">
+      <c r="C107" s="59" t="s">
         <v>1763</v>
       </c>
-      <c r="D107" s="71" t="s">
+      <c r="D107" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E107" s="71">
+      <c r="E107" s="59">
         <v>1</v>
       </c>
-      <c r="F107" s="71">
+      <c r="F107" s="59">
         <v>110</v>
       </c>
-      <c r="G107" s="71">
+      <c r="G107" s="59">
         <v>5</v>
       </c>
-      <c r="H107" s="71">
+      <c r="H107" s="59">
         <v>9</v>
       </c>
-      <c r="I107" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J107" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K107" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L107" s="71" t="s">
+      <c r="I107" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J107" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K107" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L107" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M107" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N107" s="72">
+      <c r="M107" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N107" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="28.5">
-      <c r="A108" s="71" t="s">
+      <c r="A108" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="71" t="s">
+      <c r="B108" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="71" t="s">
+      <c r="C108" s="59" t="s">
         <v>1764</v>
       </c>
-      <c r="D108" s="71" t="s">
+      <c r="D108" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E108" s="71">
+      <c r="E108" s="59">
         <v>1</v>
       </c>
-      <c r="F108" s="71">
+      <c r="F108" s="59">
         <v>110</v>
       </c>
-      <c r="G108" s="71">
+      <c r="G108" s="59">
         <v>5</v>
       </c>
-      <c r="H108" s="71">
+      <c r="H108" s="59">
         <v>9</v>
       </c>
-      <c r="I108" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J108" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K108" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L108" s="71" t="s">
+      <c r="I108" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J108" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K108" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L108" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M108" s="72">
+      <c r="M108" s="60">
         <v>66</v>
       </c>
-      <c r="N108" s="71" t="s">
+      <c r="N108" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="28.5">
-      <c r="A109" s="71" t="s">
+      <c r="A109" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B109" s="71" t="s">
+      <c r="B109" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C109" s="71" t="s">
+      <c r="C109" s="59" t="s">
         <v>1765</v>
       </c>
-      <c r="D109" s="71" t="s">
+      <c r="D109" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E109" s="71">
+      <c r="E109" s="59">
         <v>1</v>
       </c>
-      <c r="F109" s="71">
+      <c r="F109" s="59">
         <v>110</v>
       </c>
-      <c r="G109" s="71">
+      <c r="G109" s="59">
         <v>5</v>
       </c>
-      <c r="H109" s="71">
+      <c r="H109" s="59">
         <v>9</v>
       </c>
-      <c r="I109" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J109" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K109" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L109" s="71" t="s">
+      <c r="I109" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J109" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K109" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L109" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M109" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N109" s="72">
+      <c r="M109" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N109" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="28.5">
-      <c r="A110" s="71" t="s">
+      <c r="A110" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="71" t="s">
+      <c r="C110" s="59" t="s">
         <v>1766</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E110" s="71">
+      <c r="E110" s="59">
         <v>1</v>
       </c>
-      <c r="F110" s="71">
+      <c r="F110" s="59">
         <v>110</v>
       </c>
-      <c r="G110" s="71">
+      <c r="G110" s="59">
         <v>5</v>
       </c>
-      <c r="H110" s="71">
+      <c r="H110" s="59">
         <v>9</v>
       </c>
-      <c r="I110" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J110" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K110" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L110" s="71" t="s">
+      <c r="I110" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J110" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K110" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L110" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M110" s="72">
+      <c r="M110" s="60">
         <v>66</v>
       </c>
-      <c r="N110" s="71" t="s">
+      <c r="N110" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="28.5">
-      <c r="A111" s="71" t="s">
+      <c r="A111" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="71" t="s">
+      <c r="B111" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C111" s="71" t="s">
+      <c r="C111" s="59" t="s">
         <v>1767</v>
       </c>
-      <c r="D111" s="71" t="s">
+      <c r="D111" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E111" s="71">
+      <c r="E111" s="59">
         <v>10</v>
       </c>
-      <c r="F111" s="71">
+      <c r="F111" s="59">
         <v>110</v>
       </c>
-      <c r="G111" s="71">
+      <c r="G111" s="59">
         <v>5</v>
       </c>
-      <c r="H111" s="71">
+      <c r="H111" s="59">
         <v>9</v>
       </c>
-      <c r="I111" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J111" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K111" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L111" s="71" t="s">
+      <c r="I111" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J111" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K111" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L111" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M111" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N111" s="72">
+      <c r="M111" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N111" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="28.5">
-      <c r="A112" s="71" t="s">
+      <c r="A112" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="71" t="s">
+      <c r="C112" s="59" t="s">
         <v>1768</v>
       </c>
-      <c r="D112" s="71" t="s">
+      <c r="D112" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E112" s="71">
+      <c r="E112" s="59">
         <v>10</v>
       </c>
-      <c r="F112" s="71">
+      <c r="F112" s="59">
         <v>110</v>
       </c>
-      <c r="G112" s="71">
+      <c r="G112" s="59">
         <v>5</v>
       </c>
-      <c r="H112" s="71">
+      <c r="H112" s="59">
         <v>9</v>
       </c>
-      <c r="I112" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J112" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K112" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L112" s="71" t="s">
+      <c r="I112" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J112" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K112" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L112" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M112" s="72">
+      <c r="M112" s="60">
         <v>66</v>
       </c>
-      <c r="N112" s="71" t="s">
+      <c r="N112" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="28.5">
-      <c r="A113" s="71" t="s">
+      <c r="A113" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="71" t="s">
+      <c r="B113" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C113" s="71" t="s">
+      <c r="C113" s="59" t="s">
         <v>1769</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E113" s="71">
+      <c r="E113" s="59">
         <v>10</v>
       </c>
-      <c r="F113" s="71">
+      <c r="F113" s="59">
         <v>110</v>
       </c>
-      <c r="G113" s="71">
+      <c r="G113" s="59">
         <v>5</v>
       </c>
-      <c r="H113" s="71">
+      <c r="H113" s="59">
         <v>9</v>
       </c>
-      <c r="I113" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J113" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K113" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L113" s="71" t="s">
+      <c r="I113" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J113" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K113" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L113" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M113" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N113" s="72">
+      <c r="M113" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N113" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="28.5">
-      <c r="A114" s="71" t="s">
+      <c r="A114" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C114" s="59" t="s">
         <v>1770</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="59" t="s">
         <v>1804</v>
       </c>
-      <c r="E114" s="71">
+      <c r="E114" s="59">
         <v>10</v>
       </c>
-      <c r="F114" s="71">
+      <c r="F114" s="59">
         <v>110</v>
       </c>
-      <c r="G114" s="71">
+      <c r="G114" s="59">
         <v>5</v>
       </c>
-      <c r="H114" s="71">
+      <c r="H114" s="59">
         <v>9</v>
       </c>
-      <c r="I114" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J114" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K114" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L114" s="71" t="s">
+      <c r="I114" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J114" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K114" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L114" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M114" s="72">
+      <c r="M114" s="60">
         <v>66</v>
       </c>
-      <c r="N114" s="71" t="s">
+      <c r="N114" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="14.25">
-      <c r="A115" s="71" t="s">
+      <c r="A115" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B115" s="71" t="s">
+      <c r="B115" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="59" t="s">
         <v>1796</v>
       </c>
-      <c r="D115" s="71" t="s">
+      <c r="D115" s="59" t="s">
         <v>1806</v>
       </c>
-      <c r="E115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I115" s="71">
+      <c r="E115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I115" s="59">
         <v>10</v>
       </c>
-      <c r="J115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L115" s="71" t="s">
+      <c r="J115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L115" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M115" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N115" s="72">
+      <c r="M115" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N115" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="14.25">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C116" s="71" t="s">
+      <c r="C116" s="59" t="s">
         <v>1798</v>
       </c>
-      <c r="D116" s="71" t="s">
+      <c r="D116" s="59" t="s">
         <v>1806</v>
       </c>
-      <c r="E116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="H116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="I116" s="71">
+      <c r="E116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I116" s="59">
         <v>10</v>
       </c>
-      <c r="J116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K116" s="71" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L116" s="71" t="s">
+      <c r="J116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K116" s="59" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L116" s="59" t="s">
         <v>1805</v>
       </c>
-      <c r="M116" s="72">
+      <c r="M116" s="60">
         <v>66</v>
       </c>
-      <c r="N116" s="71" t="s">
+      <c r="N116" s="59" t="s">
         <v>1729</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -35730,6 +35799,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
